--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_20_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_20_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1537992.353883432</v>
+        <v>1459222.637690999</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16545448.90056617</v>
+        <v>16545448.90056616</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6485124.394270186</v>
+        <v>6485124.394270185</v>
       </c>
     </row>
     <row r="11">
@@ -1381,64 +1381,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>96.31814691971405</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="G11" t="n">
+      <c r="V11" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="H11" t="n">
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>109.3530278380042</v>
-      </c>
-      <c r="I11" t="n">
-        <v>96.31814691971407</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>96.31814691971407</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>109.3530278380042</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>69.63409423680677</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>26.68405268290729</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>109.3530278380042</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>109.3530278380042</v>
-      </c>
-      <c r="T12" t="n">
-        <v>109.3530278380042</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1545,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.69019297408957</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>26.69571250463605</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.99448046945352</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>109.3530278380042</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>109.3530278380042</v>
       </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>109.3530278380042</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1706,52 +1706,52 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>109.3530278380042</v>
+      </c>
+      <c r="V15" t="n">
+        <v>109.3530278380042</v>
+      </c>
+      <c r="W15" t="n">
+        <v>109.3530278380042</v>
+      </c>
+      <c r="X15" t="n">
         <v>96.31814691971407</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>109.3530278380042</v>
-      </c>
-      <c r="S15" t="n">
-        <v>109.3530278380042</v>
-      </c>
-      <c r="T15" t="n">
-        <v>109.3530278380042</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>26.69571250463605</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.99448046945352</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.69019297408957</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,61 +1843,61 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>109.3530278380042</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>96.31814691971407</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.6815787808473601</v>
+      </c>
+      <c r="R17" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>95.63656813886669</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>109.3530278380042</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,52 +1937,52 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="H18" t="n">
+      <c r="U18" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="I18" t="n">
-        <v>96.98992474124472</v>
-      </c>
-      <c r="J18" t="n">
-        <v>26.68405268290729</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>81.99719733356628</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>109.3530278380042</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>96.31814691971407</v>
       </c>
     </row>
     <row r="19">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.69019297408957</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>57.69019297408957</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>95.63656813886671</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>109.3530278380042</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>96.3181469197137</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>109.3530278380038</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6815787808473601</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>109.3530278380038</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>109.3530278380038</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>109.3530278380042</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>109.3530278380042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>109.3530278380042</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>96.31814691971377</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>109.3530278380038</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>109.3530278380038</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>109.3530278380038</v>
       </c>
       <c r="W21" t="n">
-        <v>109.3530278380042</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>109.3530278380042</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>96.31814691971407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.69019297408954</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>57.69019297408956</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2329,61 +2329,61 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
         <v>134.6778371348684</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="U23" t="n">
+        <v>134.6778371348684</v>
+      </c>
+      <c r="V23" t="n">
+        <v>134.6778371348684</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>118.6242389483921</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>134.6778371348684</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>134.6778371348684</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>134.6778371348684</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2417,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>96.98992474124472</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.2276707730246487</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>118.3965681753674</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>134.6778371348684</v>
       </c>
       <c r="T24" t="n">
         <v>134.6778371348684</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>37.91558316664838</v>
+        <v>134.6778371348684</v>
       </c>
     </row>
     <row r="25">
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.69019297408954</v>
+        <v>57.69019297408956</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>134.6778371348684</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>118.6242389483921</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>134.6778371348684</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,58 +2572,58 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9.206461716874429</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>109.4177772315176</v>
+      </c>
+      <c r="Y26" t="n">
         <v>134.6778371348684</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>134.6778371348684</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>134.6778371348684</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,17 +2636,17 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>134.6778371348684</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>96.98992474124472</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,19 +2684,19 @@
         <v>118.3965681753674</v>
       </c>
       <c r="S27" t="n">
-        <v>37.91558316664841</v>
+        <v>134.6778371348684</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.2276707730246539</v>
+      </c>
+      <c r="W27" t="n">
         <v>134.6778371348684</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.69019297408956</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.69019297408956</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,73 +2794,73 @@
         <v>134.6778371348684</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.206461716874429</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.6815787808473601</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>134.6778371348684</v>
       </c>
-      <c r="D29" t="n">
+      <c r="X29" t="n">
+        <v>108.7361984506702</v>
+      </c>
+      <c r="Y29" t="n">
         <v>134.6778371348684</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>118.6242389483921</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>134.6778371348684</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>96.98992474124472</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>118.6242389483921</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>134.6778371348684</v>
       </c>
       <c r="X30" t="n">
-        <v>21.6343142071474</v>
+        <v>134.6778371348684</v>
       </c>
       <c r="Y30" t="n">
         <v>134.6778371348684</v>
@@ -2994,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>57.69019297408956</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3043,46 +3043,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>118.6242389483921</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
         <v>134.6778371348684</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>9.206461716874429</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.6815787808473601</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>134.6778371348684</v>
       </c>
       <c r="T32" t="n">
-        <v>108.7361984506702</v>
+        <v>134.6778371348684</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>134.6778371348684</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>134.6778371348684</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>21.63431420714743</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>96.98992474124472</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3965681753674</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>134.6778371348684</v>
       </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>134.6778371348684</v>
       </c>
       <c r="W33" t="n">
-        <v>134.6778371348684</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>134.6778371348684</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>0.2276707730246487</v>
       </c>
     </row>
     <row r="34">
@@ -3225,13 +3225,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>2.025617613718595</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>31.06397052067317</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.6006048396978</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>57.69019297408956</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>109.3530278380042</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>96.31814691971407</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>96.31814691971405</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>109.3530278380042</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>109.3530278380042</v>
@@ -3392,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>96.31814691971405</v>
+      </c>
+      <c r="V36" t="n">
         <v>109.3530278380042</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>109.3530278380042</v>
@@ -3413,7 +3413,7 @@
         <v>109.3530278380042</v>
       </c>
       <c r="Y36" t="n">
-        <v>96.31814691971407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3444,49 +3444,49 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>57.69019297408957</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,70 +3505,70 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>96.31814691971407</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.6815787808473601</v>
-      </c>
-      <c r="R38" t="n">
-        <v>95.63656813886669</v>
-      </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.3530278380042</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>109.3530278380042</v>
       </c>
       <c r="V38" t="n">
-        <v>109.3530278380042</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>109.3530278380042</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,73 +3584,73 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>96.31814691971405</v>
+      </c>
+      <c r="V39" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="D39" t="n">
+      <c r="W39" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="E39" t="n">
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
         <v>109.3530278380042</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>96.31814691971405</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>57.69019297408954</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.69019297408957</v>
       </c>
     </row>
     <row r="41">
@@ -3745,70 +3745,70 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>96.31814691971405</v>
+      </c>
+      <c r="S41" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="E41" t="n">
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="F41" t="n">
+      <c r="Y41" t="n">
         <v>109.3530278380042</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.6815787808473601</v>
-      </c>
-      <c r="R41" t="n">
-        <v>95.63656813886669</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,67 +3824,67 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>96.31814691971405</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="E42" t="n">
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="F42" t="n">
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>109.3530278380042</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>96.31814691971407</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3936,13 +3936,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.025617613718595</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.66457536037097</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>57.69019297408957</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,64 +3979,64 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>95.63656813886669</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>96.31814691971407</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="U44" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="H44" t="n">
+      <c r="V44" t="n">
         <v>109.3530278380042</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.6815787808473601</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4061,64 +4061,64 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>96.31814691971405</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="E45" t="n">
+      <c r="V45" t="n">
         <v>109.3530278380042</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="W45" t="n">
         <v>109.3530278380042</v>
-      </c>
-      <c r="H45" t="n">
-        <v>96.31814691971407</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>57.69019297408957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4173,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.025617613718595</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>31.06397052067317</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.60060483969781</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="C11" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="D11" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="E11" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="F11" t="n">
-        <v>326.9545074752449</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="G11" t="n">
-        <v>216.496903598473</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="H11" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="I11" t="n">
         <v>8.748242227040336</v>
@@ -5044,19 +5044,19 @@
         <v>8.748242227040336</v>
       </c>
       <c r="K11" t="n">
-        <v>78.2363288553841</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="L11" t="n">
-        <v>126.3887429711598</v>
+        <v>117.0077397866645</v>
       </c>
       <c r="M11" t="n">
-        <v>226.2841339138719</v>
+        <v>216.9031307293766</v>
       </c>
       <c r="N11" t="n">
-        <v>334.543631473496</v>
+        <v>325.1626282890008</v>
       </c>
       <c r="O11" t="n">
-        <v>417.267185566729</v>
+        <v>407.8861823822338</v>
       </c>
       <c r="P11" t="n">
         <v>437.4121113520168</v>
@@ -5068,25 +5068,25 @@
         <v>437.4121113520168</v>
       </c>
       <c r="S11" t="n">
-        <v>437.4121113520168</v>
+        <v>340.1210538573562</v>
       </c>
       <c r="T11" t="n">
-        <v>437.4121113520168</v>
+        <v>340.1210538573562</v>
       </c>
       <c r="U11" t="n">
-        <v>437.4121113520168</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="V11" t="n">
-        <v>437.4121113520168</v>
+        <v>119.2058461038123</v>
       </c>
       <c r="W11" t="n">
-        <v>437.4121113520168</v>
+        <v>119.2058461038123</v>
       </c>
       <c r="X11" t="n">
-        <v>437.4121113520168</v>
+        <v>119.2058461038123</v>
       </c>
       <c r="Y11" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>106.039299721701</v>
+        <v>216.496903598473</v>
       </c>
       <c r="C12" t="n">
-        <v>106.039299721701</v>
+        <v>119.2058461038123</v>
       </c>
       <c r="D12" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="E12" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="F12" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="G12" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="H12" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="I12" t="n">
-        <v>35.70183079563356</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="J12" t="n">
         <v>8.748242227040336</v>
@@ -5126,13 +5126,13 @@
         <v>8.748242227040336</v>
       </c>
       <c r="L12" t="n">
-        <v>94.88674545426777</v>
+        <v>54.93256742037941</v>
       </c>
       <c r="M12" t="n">
-        <v>203.1462430138919</v>
+        <v>163.1920649800036</v>
       </c>
       <c r="N12" t="n">
-        <v>311.4057405735161</v>
+        <v>271.4515625396277</v>
       </c>
       <c r="O12" t="n">
         <v>379.2050485191301</v>
@@ -5147,25 +5147,25 @@
         <v>326.9545074752449</v>
       </c>
       <c r="S12" t="n">
+        <v>326.9545074752449</v>
+      </c>
+      <c r="T12" t="n">
+        <v>326.9545074752449</v>
+      </c>
+      <c r="U12" t="n">
         <v>216.496903598473</v>
       </c>
-      <c r="T12" t="n">
-        <v>106.039299721701</v>
-      </c>
-      <c r="U12" t="n">
-        <v>106.039299721701</v>
-      </c>
       <c r="V12" t="n">
-        <v>106.039299721701</v>
+        <v>216.496903598473</v>
       </c>
       <c r="W12" t="n">
-        <v>106.039299721701</v>
+        <v>216.496903598473</v>
       </c>
       <c r="X12" t="n">
-        <v>106.039299721701</v>
+        <v>216.496903598473</v>
       </c>
       <c r="Y12" t="n">
-        <v>106.039299721701</v>
+        <v>216.496903598473</v>
       </c>
     </row>
     <row r="13">
@@ -5193,13 +5193,13 @@
         <v>67.02116442309041</v>
       </c>
       <c r="H13" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="I13" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="J13" t="n">
-        <v>40.05579825679137</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="K13" t="n">
         <v>8.748242227040336</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="C14" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="D14" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="E14" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="F14" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="G14" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="H14" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="I14" t="n">
         <v>8.748242227040336</v>
@@ -5308,22 +5308,22 @@
         <v>229.6634499805842</v>
       </c>
       <c r="T14" t="n">
-        <v>119.2058461038123</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="U14" t="n">
-        <v>119.2058461038123</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="V14" t="n">
         <v>119.2058461038123</v>
       </c>
       <c r="W14" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="X14" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="Y14" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040336</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="C15" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="D15" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="E15" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="F15" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="G15" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="H15" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="I15" t="n">
         <v>8.748242227040336</v>
@@ -5366,10 +5366,10 @@
         <v>108.5647661424197</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1920649800036</v>
+        <v>216.8242637020439</v>
       </c>
       <c r="N15" t="n">
-        <v>271.4515625396277</v>
+        <v>325.083761261668</v>
       </c>
       <c r="O15" t="n">
         <v>379.2050485191301</v>
@@ -5381,28 +5381,28 @@
         <v>437.4121113520168</v>
       </c>
       <c r="R15" t="n">
+        <v>437.4121113520168</v>
+      </c>
+      <c r="S15" t="n">
+        <v>437.4121113520168</v>
+      </c>
+      <c r="T15" t="n">
+        <v>437.4121113520168</v>
+      </c>
+      <c r="U15" t="n">
         <v>326.9545074752449</v>
       </c>
-      <c r="S15" t="n">
+      <c r="V15" t="n">
         <v>216.496903598473</v>
-      </c>
-      <c r="T15" t="n">
-        <v>106.039299721701</v>
-      </c>
-      <c r="U15" t="n">
-        <v>106.039299721701</v>
-      </c>
-      <c r="V15" t="n">
-        <v>106.039299721701</v>
       </c>
       <c r="W15" t="n">
         <v>106.039299721701</v>
       </c>
       <c r="X15" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="Y15" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="C16" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="D16" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="E16" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="F16" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="G16" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="H16" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="I16" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="J16" t="n">
-        <v>40.05579825679137</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="K16" t="n">
         <v>8.748242227040336</v>
@@ -5460,28 +5460,28 @@
         <v>67.02116442309041</v>
       </c>
       <c r="R16" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="S16" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="T16" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="U16" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="V16" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="W16" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="X16" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>216.496903598473</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="C17" t="n">
-        <v>216.496903598473</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="D17" t="n">
-        <v>216.496903598473</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="E17" t="n">
-        <v>216.496903598473</v>
+        <v>119.2058461038123</v>
       </c>
       <c r="F17" t="n">
-        <v>216.496903598473</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="G17" t="n">
-        <v>216.496903598473</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="H17" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="I17" t="n">
         <v>8.748242227040336</v>
@@ -5536,31 +5536,31 @@
         <v>437.4121113520168</v>
       </c>
       <c r="Q17" t="n">
-        <v>437.4121113520168</v>
+        <v>436.7236479370195</v>
       </c>
       <c r="R17" t="n">
-        <v>437.4121113520168</v>
+        <v>326.2660440602476</v>
       </c>
       <c r="S17" t="n">
-        <v>437.4121113520168</v>
+        <v>326.2660440602476</v>
       </c>
       <c r="T17" t="n">
-        <v>437.4121113520168</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="U17" t="n">
-        <v>437.4121113520168</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="V17" t="n">
-        <v>437.4121113520168</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="W17" t="n">
-        <v>437.4121113520168</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="X17" t="n">
-        <v>326.9545074752449</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="Y17" t="n">
-        <v>326.9545074752449</v>
+        <v>229.6634499805842</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>354.5866594999297</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="C18" t="n">
-        <v>354.5866594999297</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="D18" t="n">
-        <v>354.5866594999297</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="E18" t="n">
-        <v>354.5866594999297</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="F18" t="n">
-        <v>354.5866594999297</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="G18" t="n">
-        <v>244.1290556231577</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="H18" t="n">
-        <v>133.6714517463858</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="I18" t="n">
-        <v>35.70183079563356</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="J18" t="n">
         <v>8.748242227040336</v>
@@ -5606,7 +5606,7 @@
         <v>203.1462430138919</v>
       </c>
       <c r="N18" t="n">
-        <v>311.4057405735161</v>
+        <v>271.4515625396277</v>
       </c>
       <c r="O18" t="n">
         <v>379.2050485191301</v>
@@ -5618,28 +5618,28 @@
         <v>437.4121113520168</v>
       </c>
       <c r="R18" t="n">
-        <v>354.5866594999297</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="S18" t="n">
-        <v>354.5866594999297</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="T18" t="n">
-        <v>354.5866594999297</v>
+        <v>326.9545074752449</v>
       </c>
       <c r="U18" t="n">
-        <v>354.5866594999297</v>
+        <v>216.496903598473</v>
       </c>
       <c r="V18" t="n">
-        <v>354.5866594999297</v>
+        <v>106.039299721701</v>
       </c>
       <c r="W18" t="n">
-        <v>354.5866594999297</v>
+        <v>106.039299721701</v>
       </c>
       <c r="X18" t="n">
-        <v>354.5866594999297</v>
+        <v>106.039299721701</v>
       </c>
       <c r="Y18" t="n">
-        <v>354.5866594999297</v>
+        <v>8.748242227040336</v>
       </c>
     </row>
     <row r="19">
@@ -5697,19 +5697,19 @@
         <v>67.02116442309041</v>
       </c>
       <c r="R19" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="S19" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="T19" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="U19" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="V19" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="W19" t="n">
         <v>8.748242227040336</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>119.2058461038123</v>
+        <v>216.4969035984721</v>
       </c>
       <c r="C20" t="n">
-        <v>8.748242227040336</v>
+        <v>216.4969035984721</v>
       </c>
       <c r="D20" t="n">
-        <v>8.748242227040336</v>
+        <v>216.4969035984721</v>
       </c>
       <c r="E20" t="n">
-        <v>8.748242227040336</v>
+        <v>119.2058461038118</v>
       </c>
       <c r="F20" t="n">
-        <v>8.748242227040336</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="G20" t="n">
-        <v>8.748242227040336</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="H20" t="n">
-        <v>8.748242227040336</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="I20" t="n">
-        <v>8.748242227040336</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="J20" t="n">
-        <v>8.748242227040336</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="K20" t="n">
-        <v>8.748242227040336</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="L20" t="n">
-        <v>92.48869288785652</v>
+        <v>117.0077397866641</v>
       </c>
       <c r="M20" t="n">
-        <v>200.7481904474807</v>
+        <v>225.2672373462878</v>
       </c>
       <c r="N20" t="n">
-        <v>309.0076880071048</v>
+        <v>333.526734905912</v>
       </c>
       <c r="O20" t="n">
-        <v>417.267185566729</v>
+        <v>417.2671855667273</v>
       </c>
       <c r="P20" t="n">
-        <v>437.4121113520168</v>
+        <v>437.4121113520152</v>
       </c>
       <c r="Q20" t="n">
-        <v>436.7236479370195</v>
+        <v>437.4121113520152</v>
       </c>
       <c r="R20" t="n">
-        <v>436.7236479370195</v>
+        <v>437.4121113520152</v>
       </c>
       <c r="S20" t="n">
-        <v>436.7236479370195</v>
+        <v>437.4121113520152</v>
       </c>
       <c r="T20" t="n">
-        <v>436.7236479370195</v>
+        <v>326.9545074752436</v>
       </c>
       <c r="U20" t="n">
-        <v>436.7236479370195</v>
+        <v>216.4969035984721</v>
       </c>
       <c r="V20" t="n">
-        <v>436.7236479370195</v>
+        <v>216.4969035984721</v>
       </c>
       <c r="W20" t="n">
-        <v>326.2660440602476</v>
+        <v>216.4969035984721</v>
       </c>
       <c r="X20" t="n">
-        <v>326.2660440602476</v>
+        <v>216.4969035984721</v>
       </c>
       <c r="Y20" t="n">
-        <v>215.8084401834756</v>
+        <v>216.4969035984721</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="C21" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="D21" t="n">
-        <v>8.748242227040336</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="E21" t="n">
-        <v>8.748242227040336</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="F21" t="n">
-        <v>8.748242227040336</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="G21" t="n">
-        <v>8.748242227040336</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="H21" t="n">
-        <v>8.748242227040336</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="I21" t="n">
-        <v>8.748242227040336</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="J21" t="n">
-        <v>8.748242227040336</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="K21" t="n">
-        <v>8.748242227040336</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="L21" t="n">
-        <v>94.88674545426777</v>
+        <v>94.88674545426774</v>
       </c>
       <c r="M21" t="n">
-        <v>163.1920649800036</v>
+        <v>163.1920649800023</v>
       </c>
       <c r="N21" t="n">
-        <v>271.4515625396277</v>
+        <v>271.451562539626</v>
       </c>
       <c r="O21" t="n">
-        <v>379.2050485191301</v>
+        <v>379.2050485191284</v>
       </c>
       <c r="P21" t="n">
-        <v>437.4121113520168</v>
+        <v>437.4121113520152</v>
       </c>
       <c r="Q21" t="n">
-        <v>437.4121113520168</v>
+        <v>437.4121113520152</v>
       </c>
       <c r="R21" t="n">
-        <v>437.4121113520168</v>
+        <v>437.4121113520152</v>
       </c>
       <c r="S21" t="n">
-        <v>437.4121113520168</v>
+        <v>340.1210538573548</v>
       </c>
       <c r="T21" t="n">
-        <v>437.4121113520168</v>
+        <v>229.6634499805833</v>
       </c>
       <c r="U21" t="n">
-        <v>437.4121113520168</v>
+        <v>119.2058461038118</v>
       </c>
       <c r="V21" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="W21" t="n">
-        <v>326.9545074752449</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="X21" t="n">
-        <v>216.496903598473</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="Y21" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040304</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="C22" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="D22" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="E22" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="F22" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="G22" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="H22" t="n">
-        <v>379.1391891559668</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="I22" t="n">
-        <v>379.1391891559668</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="J22" t="n">
-        <v>379.1391891559668</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="K22" t="n">
-        <v>379.1391891559668</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="L22" t="n">
-        <v>390.2721425546313</v>
+        <v>19.88119562570479</v>
       </c>
       <c r="M22" t="n">
-        <v>408.629538287396</v>
+        <v>38.23859135846955</v>
       </c>
       <c r="N22" t="n">
-        <v>437.4121113520168</v>
+        <v>67.02116442309037</v>
       </c>
       <c r="O22" t="n">
-        <v>437.4121113520168</v>
+        <v>67.02116442309037</v>
       </c>
       <c r="P22" t="n">
-        <v>437.4121113520168</v>
+        <v>67.02116442309037</v>
       </c>
       <c r="Q22" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="R22" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="S22" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="T22" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="U22" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="V22" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="W22" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="X22" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040304</v>
       </c>
       <c r="Y22" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040304</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.6349098831739</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="C23" t="n">
-        <v>266.6349098831739</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="D23" t="n">
-        <v>266.6349098831739</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="E23" t="n">
-        <v>266.6349098831739</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="F23" t="n">
-        <v>130.596690555024</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="G23" t="n">
-        <v>130.596690555024</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="H23" t="n">
         <v>10.77422697078948</v>
@@ -5998,10 +5998,10 @@
         <v>144.1052857343092</v>
       </c>
       <c r="M23" t="n">
-        <v>276.975866431042</v>
+        <v>277.436344497829</v>
       </c>
       <c r="N23" t="n">
-        <v>385.2353639906662</v>
+        <v>410.7674032613488</v>
       </c>
       <c r="O23" t="n">
         <v>518.566422754186</v>
@@ -6016,25 +6016,25 @@
         <v>538.7113485394738</v>
       </c>
       <c r="S23" t="n">
-        <v>402.6731292113238</v>
+        <v>538.7113485394738</v>
       </c>
       <c r="T23" t="n">
         <v>402.6731292113238</v>
       </c>
       <c r="U23" t="n">
-        <v>402.6731292113238</v>
+        <v>266.6349098831739</v>
       </c>
       <c r="V23" t="n">
-        <v>402.6731292113238</v>
+        <v>130.596690555024</v>
       </c>
       <c r="W23" t="n">
-        <v>266.6349098831739</v>
+        <v>130.596690555024</v>
       </c>
       <c r="X23" t="n">
-        <v>266.6349098831739</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="Y23" t="n">
-        <v>266.6349098831739</v>
+        <v>10.77422697078948</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>108.7438479215417</v>
+        <v>11.00419744859215</v>
       </c>
       <c r="C24" t="n">
-        <v>108.7438479215417</v>
+        <v>11.00419744859215</v>
       </c>
       <c r="D24" t="n">
-        <v>108.7438479215417</v>
+        <v>11.00419744859215</v>
       </c>
       <c r="E24" t="n">
-        <v>108.7438479215417</v>
+        <v>11.00419744859215</v>
       </c>
       <c r="F24" t="n">
-        <v>108.7438479215417</v>
+        <v>11.00419744859215</v>
       </c>
       <c r="G24" t="n">
-        <v>108.7438479215417</v>
+        <v>11.00419744859215</v>
       </c>
       <c r="H24" t="n">
-        <v>108.7438479215417</v>
+        <v>11.00419744859215</v>
       </c>
       <c r="I24" t="n">
-        <v>10.77422697078948</v>
+        <v>11.00419744859215</v>
       </c>
       <c r="J24" t="n">
         <v>10.77422697078948</v>
       </c>
       <c r="K24" t="n">
-        <v>24.45224765894142</v>
+        <v>24.45224765894159</v>
       </c>
       <c r="L24" t="n">
-        <v>110.5907508861688</v>
+        <v>110.590750886169</v>
       </c>
       <c r="M24" t="n">
         <v>239.4197409635648</v>
@@ -6095,25 +6095,25 @@
         <v>419.118855433042</v>
       </c>
       <c r="S24" t="n">
-        <v>419.118855433042</v>
+        <v>283.0806361048921</v>
       </c>
       <c r="T24" t="n">
-        <v>283.0806361048921</v>
+        <v>147.0424167767421</v>
       </c>
       <c r="U24" t="n">
-        <v>283.0806361048921</v>
+        <v>147.0424167767421</v>
       </c>
       <c r="V24" t="n">
-        <v>283.0806361048921</v>
+        <v>147.0424167767421</v>
       </c>
       <c r="W24" t="n">
-        <v>283.0806361048921</v>
+        <v>147.0424167767421</v>
       </c>
       <c r="X24" t="n">
-        <v>283.0806361048921</v>
+        <v>147.0424167767421</v>
       </c>
       <c r="Y24" t="n">
-        <v>244.7820672496917</v>
+        <v>11.00419744859215</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>480.4384263434237</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="C25" t="n">
-        <v>480.4384263434237</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="D25" t="n">
-        <v>480.4384263434237</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="E25" t="n">
-        <v>480.4384263434237</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="F25" t="n">
-        <v>480.4384263434237</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="G25" t="n">
-        <v>480.4384263434237</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="H25" t="n">
-        <v>480.4384263434237</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="I25" t="n">
-        <v>480.4384263434237</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="J25" t="n">
-        <v>480.4384263434237</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="K25" t="n">
-        <v>480.4384263434237</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="L25" t="n">
-        <v>491.5713797420882</v>
+        <v>21.90718036945396</v>
       </c>
       <c r="M25" t="n">
-        <v>509.928775474853</v>
+        <v>40.26457610221873</v>
       </c>
       <c r="N25" t="n">
-        <v>538.7113485394738</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="O25" t="n">
-        <v>538.7113485394738</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="P25" t="n">
-        <v>538.7113485394738</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="Q25" t="n">
-        <v>538.7113485394738</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="R25" t="n">
-        <v>538.7113485394738</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="S25" t="n">
-        <v>538.7113485394738</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="T25" t="n">
-        <v>480.4384263434237</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="U25" t="n">
-        <v>480.4384263434237</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="V25" t="n">
-        <v>480.4384263434237</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="W25" t="n">
-        <v>480.4384263434237</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="X25" t="n">
-        <v>480.4384263434237</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="Y25" t="n">
-        <v>480.4384263434237</v>
+        <v>10.77422697078948</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>266.6349098831739</v>
+        <v>156.1119025786106</v>
       </c>
       <c r="C26" t="n">
-        <v>266.6349098831739</v>
+        <v>156.1119025786106</v>
       </c>
       <c r="D26" t="n">
-        <v>146.8124462989394</v>
+        <v>156.1119025786106</v>
       </c>
       <c r="E26" t="n">
-        <v>146.8124462989394</v>
+        <v>20.07368325046062</v>
       </c>
       <c r="F26" t="n">
-        <v>146.8124462989394</v>
+        <v>20.07368325046062</v>
       </c>
       <c r="G26" t="n">
-        <v>146.8124462989394</v>
+        <v>20.07368325046062</v>
       </c>
       <c r="H26" t="n">
-        <v>10.77422697078948</v>
+        <v>20.07368325046062</v>
       </c>
       <c r="I26" t="n">
-        <v>10.77422697078948</v>
+        <v>20.07368325046062</v>
       </c>
       <c r="J26" t="n">
         <v>10.77422697078948</v>
@@ -6232,16 +6232,16 @@
         <v>89.52082567722614</v>
       </c>
       <c r="L26" t="n">
-        <v>169.1807511339135</v>
+        <v>137.6732397930018</v>
       </c>
       <c r="M26" t="n">
-        <v>302.5118098974332</v>
+        <v>237.5686307357139</v>
       </c>
       <c r="N26" t="n">
-        <v>435.842868660953</v>
+        <v>353.0118811776134</v>
       </c>
       <c r="O26" t="n">
-        <v>518.566422754186</v>
+        <v>435.7354352708463</v>
       </c>
       <c r="P26" t="n">
         <v>538.7113485394738</v>
@@ -6253,25 +6253,25 @@
         <v>538.7113485394738</v>
       </c>
       <c r="S26" t="n">
-        <v>402.6731292113238</v>
+        <v>538.7113485394738</v>
       </c>
       <c r="T26" t="n">
-        <v>402.6731292113238</v>
+        <v>538.7113485394738</v>
       </c>
       <c r="U26" t="n">
-        <v>266.6349098831739</v>
+        <v>538.7113485394738</v>
       </c>
       <c r="V26" t="n">
-        <v>266.6349098831739</v>
+        <v>538.7113485394738</v>
       </c>
       <c r="W26" t="n">
-        <v>266.6349098831739</v>
+        <v>538.7113485394738</v>
       </c>
       <c r="X26" t="n">
-        <v>266.6349098831739</v>
+        <v>428.1883412349105</v>
       </c>
       <c r="Y26" t="n">
-        <v>266.6349098831739</v>
+        <v>292.1501219067605</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>244.7820672496917</v>
+        <v>146.8124462989394</v>
       </c>
       <c r="C27" t="n">
-        <v>108.7438479215417</v>
+        <v>146.8124462989394</v>
       </c>
       <c r="D27" t="n">
-        <v>108.7438479215417</v>
+        <v>146.8124462989394</v>
       </c>
       <c r="E27" t="n">
-        <v>108.7438479215417</v>
+        <v>146.8124462989394</v>
       </c>
       <c r="F27" t="n">
-        <v>108.7438479215417</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="G27" t="n">
-        <v>108.7438479215417</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="H27" t="n">
-        <v>108.7438479215417</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="I27" t="n">
         <v>10.77422697078948</v>
@@ -6323,7 +6323,7 @@
         <v>480.5042857065869</v>
       </c>
       <c r="P27" t="n">
-        <v>538.7113485394736</v>
+        <v>538.7113485394738</v>
       </c>
       <c r="Q27" t="n">
         <v>538.7113485394738</v>
@@ -6332,25 +6332,25 @@
         <v>419.118855433042</v>
       </c>
       <c r="S27" t="n">
-        <v>380.8202865778416</v>
+        <v>283.0806361048921</v>
       </c>
       <c r="T27" t="n">
-        <v>244.7820672496917</v>
+        <v>283.0806361048921</v>
       </c>
       <c r="U27" t="n">
-        <v>244.7820672496917</v>
+        <v>283.0806361048921</v>
       </c>
       <c r="V27" t="n">
-        <v>244.7820672496917</v>
+        <v>282.8506656270894</v>
       </c>
       <c r="W27" t="n">
-        <v>244.7820672496917</v>
+        <v>146.8124462989394</v>
       </c>
       <c r="X27" t="n">
-        <v>244.7820672496917</v>
+        <v>146.8124462989394</v>
       </c>
       <c r="Y27" t="n">
-        <v>244.7820672496917</v>
+        <v>146.8124462989394</v>
       </c>
     </row>
     <row r="28">
@@ -6414,16 +6414,16 @@
         <v>69.04714916683955</v>
       </c>
       <c r="T28" t="n">
-        <v>69.04714916683955</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="U28" t="n">
-        <v>69.04714916683955</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="V28" t="n">
-        <v>69.04714916683955</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="W28" t="n">
-        <v>69.04714916683955</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="X28" t="n">
         <v>10.77422697078948</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>402.6731292113238</v>
+        <v>20.07368325046062</v>
       </c>
       <c r="C29" t="n">
-        <v>266.6349098831739</v>
+        <v>20.07368325046062</v>
       </c>
       <c r="D29" t="n">
-        <v>130.596690555024</v>
+        <v>20.07368325046062</v>
       </c>
       <c r="E29" t="n">
-        <v>130.596690555024</v>
+        <v>20.07368325046062</v>
       </c>
       <c r="F29" t="n">
-        <v>130.596690555024</v>
+        <v>20.07368325046062</v>
       </c>
       <c r="G29" t="n">
-        <v>130.596690555024</v>
+        <v>20.07368325046062</v>
       </c>
       <c r="H29" t="n">
-        <v>130.596690555024</v>
+        <v>20.07368325046062</v>
       </c>
       <c r="I29" t="n">
-        <v>10.77422697078948</v>
+        <v>20.07368325046062</v>
       </c>
       <c r="J29" t="n">
         <v>10.77422697078948</v>
       </c>
       <c r="K29" t="n">
-        <v>89.52082567722614</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="L29" t="n">
-        <v>222.8518844407459</v>
+        <v>60.81382018418265</v>
       </c>
       <c r="M29" t="n">
-        <v>322.747275383458</v>
+        <v>194.1448789477024</v>
       </c>
       <c r="N29" t="n">
-        <v>435.842868660953</v>
+        <v>302.4043765073266</v>
       </c>
       <c r="O29" t="n">
-        <v>518.566422754186</v>
+        <v>435.7354352708463</v>
       </c>
       <c r="P29" t="n">
         <v>538.7113485394738</v>
       </c>
       <c r="Q29" t="n">
-        <v>538.7113485394738</v>
+        <v>538.0228851244764</v>
       </c>
       <c r="R29" t="n">
-        <v>538.7113485394738</v>
+        <v>538.0228851244764</v>
       </c>
       <c r="S29" t="n">
-        <v>538.7113485394738</v>
+        <v>538.0228851244764</v>
       </c>
       <c r="T29" t="n">
-        <v>538.7113485394738</v>
+        <v>538.0228851244764</v>
       </c>
       <c r="U29" t="n">
-        <v>538.7113485394738</v>
+        <v>538.0228851244764</v>
       </c>
       <c r="V29" t="n">
-        <v>538.7113485394738</v>
+        <v>538.0228851244764</v>
       </c>
       <c r="W29" t="n">
-        <v>538.7113485394738</v>
+        <v>401.9846657963265</v>
       </c>
       <c r="X29" t="n">
-        <v>538.7113485394738</v>
+        <v>292.1501219067605</v>
       </c>
       <c r="Y29" t="n">
-        <v>538.7113485394738</v>
+        <v>156.1119025786106</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>244.7820672496917</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="C30" t="n">
-        <v>244.7820672496917</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="D30" t="n">
-        <v>244.7820672496917</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="E30" t="n">
-        <v>244.7820672496917</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="F30" t="n">
-        <v>108.7438479215417</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="G30" t="n">
-        <v>108.7438479215417</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="H30" t="n">
-        <v>108.7438479215417</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="I30" t="n">
         <v>10.77422697078948</v>
@@ -6557,10 +6557,10 @@
         <v>372.7507997270845</v>
       </c>
       <c r="O30" t="n">
-        <v>480.5042857065869</v>
+        <v>480.504285706587</v>
       </c>
       <c r="P30" t="n">
-        <v>538.7113485394736</v>
+        <v>538.7113485394738</v>
       </c>
       <c r="Q30" t="n">
         <v>538.7113485394738</v>
@@ -6572,22 +6572,22 @@
         <v>538.7113485394738</v>
       </c>
       <c r="T30" t="n">
-        <v>538.7113485394738</v>
+        <v>418.8888849552393</v>
       </c>
       <c r="U30" t="n">
-        <v>538.7113485394738</v>
+        <v>418.8888849552393</v>
       </c>
       <c r="V30" t="n">
-        <v>538.7113485394738</v>
+        <v>418.8888849552393</v>
       </c>
       <c r="W30" t="n">
-        <v>402.6731292113238</v>
+        <v>282.8506656270894</v>
       </c>
       <c r="X30" t="n">
-        <v>380.8202865778416</v>
+        <v>146.8124462989394</v>
       </c>
       <c r="Y30" t="n">
-        <v>244.7820672496917</v>
+        <v>10.77422697078948</v>
       </c>
     </row>
     <row r="31">
@@ -6642,16 +6642,16 @@
         <v>69.04714916683955</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.77422697078948</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="R31" t="n">
-        <v>10.77422697078948</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="S31" t="n">
-        <v>10.77422697078948</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="T31" t="n">
-        <v>10.77422697078948</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="U31" t="n">
         <v>10.77422697078948</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>156.1119025786106</v>
+        <v>130.596690555024</v>
       </c>
       <c r="C32" t="n">
-        <v>156.1119025786106</v>
+        <v>130.596690555024</v>
       </c>
       <c r="D32" t="n">
-        <v>156.1119025786106</v>
+        <v>130.596690555024</v>
       </c>
       <c r="E32" t="n">
-        <v>156.1119025786106</v>
+        <v>130.596690555024</v>
       </c>
       <c r="F32" t="n">
-        <v>156.1119025786106</v>
+        <v>130.596690555024</v>
       </c>
       <c r="G32" t="n">
-        <v>156.1119025786106</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="H32" t="n">
-        <v>20.07368325046062</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="I32" t="n">
-        <v>20.07368325046062</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="J32" t="n">
         <v>10.77422697078948</v>
@@ -6706,46 +6706,46 @@
         <v>10.77422697078948</v>
       </c>
       <c r="L32" t="n">
-        <v>144.1052857343092</v>
+        <v>58.92664108656514</v>
       </c>
       <c r="M32" t="n">
-        <v>251.9043052271464</v>
+        <v>192.2576998500849</v>
       </c>
       <c r="N32" t="n">
-        <v>385.2353639906662</v>
+        <v>325.5887586136047</v>
       </c>
       <c r="O32" t="n">
-        <v>518.566422754186</v>
+        <v>435.7354352708463</v>
       </c>
       <c r="P32" t="n">
         <v>538.7113485394738</v>
       </c>
       <c r="Q32" t="n">
-        <v>538.0228851244764</v>
+        <v>538.7113485394738</v>
       </c>
       <c r="R32" t="n">
-        <v>538.0228851244764</v>
+        <v>402.6731292113238</v>
       </c>
       <c r="S32" t="n">
-        <v>538.0228851244764</v>
+        <v>266.6349098831739</v>
       </c>
       <c r="T32" t="n">
-        <v>428.1883412349105</v>
+        <v>130.596690555024</v>
       </c>
       <c r="U32" t="n">
-        <v>428.1883412349105</v>
+        <v>130.596690555024</v>
       </c>
       <c r="V32" t="n">
-        <v>428.1883412349105</v>
+        <v>130.596690555024</v>
       </c>
       <c r="W32" t="n">
-        <v>292.1501219067605</v>
+        <v>130.596690555024</v>
       </c>
       <c r="X32" t="n">
-        <v>156.1119025786106</v>
+        <v>130.596690555024</v>
       </c>
       <c r="Y32" t="n">
-        <v>156.1119025786106</v>
+        <v>130.596690555024</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>130.596690555024</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="C33" t="n">
-        <v>130.596690555024</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="D33" t="n">
-        <v>130.596690555024</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="E33" t="n">
-        <v>130.596690555024</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="F33" t="n">
-        <v>108.7438479215417</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="G33" t="n">
-        <v>108.7438479215417</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="H33" t="n">
-        <v>108.7438479215417</v>
+        <v>10.77422697078948</v>
       </c>
       <c r="I33" t="n">
         <v>10.77422697078948</v>
@@ -6785,46 +6785,46 @@
         <v>24.45224765894142</v>
       </c>
       <c r="L33" t="n">
-        <v>110.5907508861688</v>
+        <v>110.590750886169</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4197409635647</v>
+        <v>239.4197409635649</v>
       </c>
       <c r="N33" t="n">
-        <v>372.7507997270845</v>
+        <v>372.7507997270847</v>
       </c>
       <c r="O33" t="n">
-        <v>480.5042857065869</v>
+        <v>480.504285706587</v>
       </c>
       <c r="P33" t="n">
-        <v>538.7113485394736</v>
+        <v>538.7113485394738</v>
       </c>
       <c r="Q33" t="n">
         <v>538.7113485394738</v>
       </c>
       <c r="R33" t="n">
-        <v>538.7113485394738</v>
+        <v>419.118855433042</v>
       </c>
       <c r="S33" t="n">
-        <v>538.7113485394738</v>
+        <v>419.118855433042</v>
       </c>
       <c r="T33" t="n">
-        <v>402.6731292113238</v>
+        <v>419.118855433042</v>
       </c>
       <c r="U33" t="n">
-        <v>402.6731292113238</v>
+        <v>283.0806361048921</v>
       </c>
       <c r="V33" t="n">
-        <v>402.6731292113238</v>
+        <v>147.0424167767421</v>
       </c>
       <c r="W33" t="n">
-        <v>266.6349098831739</v>
+        <v>147.0424167767421</v>
       </c>
       <c r="X33" t="n">
-        <v>130.596690555024</v>
+        <v>11.00419744859215</v>
       </c>
       <c r="Y33" t="n">
-        <v>130.596690555024</v>
+        <v>10.77422697078948</v>
       </c>
     </row>
     <row r="34">
@@ -6873,28 +6873,28 @@
         <v>69.04714916683955</v>
       </c>
       <c r="O34" t="n">
-        <v>67.00107076914399</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="P34" t="n">
-        <v>35.62332276846402</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="Q34" t="n">
-        <v>10.77422697078948</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="R34" t="n">
-        <v>10.77422697078948</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="S34" t="n">
-        <v>10.77422697078948</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="T34" t="n">
-        <v>10.77422697078948</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="U34" t="n">
-        <v>10.77422697078948</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="V34" t="n">
-        <v>10.77422697078948</v>
+        <v>69.04714916683955</v>
       </c>
       <c r="W34" t="n">
         <v>10.77422697078948</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>119.2058461038123</v>
+        <v>216.496903598473</v>
       </c>
       <c r="C35" t="n">
-        <v>8.748242227040336</v>
+        <v>216.496903598473</v>
       </c>
       <c r="D35" t="n">
-        <v>8.748242227040336</v>
+        <v>106.039299721701</v>
       </c>
       <c r="E35" t="n">
         <v>8.748242227040336</v>
@@ -6952,7 +6952,7 @@
         <v>325.1626282890008</v>
       </c>
       <c r="O35" t="n">
-        <v>407.8861823822338</v>
+        <v>417.267185566729</v>
       </c>
       <c r="P35" t="n">
         <v>437.4121113520168</v>
@@ -6961,28 +6961,28 @@
         <v>437.4121113520168</v>
       </c>
       <c r="R35" t="n">
-        <v>340.1210538573562</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="S35" t="n">
-        <v>340.1210538573562</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="T35" t="n">
-        <v>340.1210538573562</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="U35" t="n">
-        <v>340.1210538573562</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="V35" t="n">
-        <v>340.1210538573562</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="W35" t="n">
-        <v>340.1210538573562</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="X35" t="n">
-        <v>229.6634499805842</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="Y35" t="n">
-        <v>119.2058461038123</v>
+        <v>326.9545074752449</v>
       </c>
     </row>
     <row r="36">
@@ -7019,10 +7019,10 @@
         <v>8.748242227040336</v>
       </c>
       <c r="K36" t="n">
-        <v>22.42626291519228</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="L36" t="n">
-        <v>108.5647661424197</v>
+        <v>94.88674545426777</v>
       </c>
       <c r="M36" t="n">
         <v>163.1920649800036</v>
@@ -7040,25 +7040,25 @@
         <v>437.4121113520168</v>
       </c>
       <c r="R36" t="n">
-        <v>326.9545074752449</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="S36" t="n">
-        <v>326.9545074752449</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="T36" t="n">
-        <v>326.9545074752449</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="U36" t="n">
-        <v>326.9545074752449</v>
+        <v>340.1210538573562</v>
       </c>
       <c r="V36" t="n">
-        <v>326.9545074752449</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="W36" t="n">
-        <v>216.496903598473</v>
+        <v>119.2058461038123</v>
       </c>
       <c r="X36" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="Y36" t="n">
         <v>8.748242227040336</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="C37" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="D37" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="E37" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="F37" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="G37" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="H37" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="I37" t="n">
         <v>8.748242227040336</v>
@@ -7134,13 +7134,13 @@
         <v>67.02116442309041</v>
       </c>
       <c r="W37" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="X37" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.02116442309041</v>
+        <v>8.748242227040336</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>119.2058461038123</v>
+        <v>106.039299721701</v>
       </c>
       <c r="C38" t="n">
-        <v>8.748242227040336</v>
+        <v>106.039299721701</v>
       </c>
       <c r="D38" t="n">
-        <v>8.748242227040336</v>
+        <v>106.039299721701</v>
       </c>
       <c r="E38" t="n">
-        <v>8.748242227040336</v>
+        <v>106.039299721701</v>
       </c>
       <c r="F38" t="n">
-        <v>8.748242227040336</v>
+        <v>106.039299721701</v>
       </c>
       <c r="G38" t="n">
-        <v>8.748242227040336</v>
+        <v>106.039299721701</v>
       </c>
       <c r="H38" t="n">
         <v>8.748242227040336</v>
@@ -7180,46 +7180,46 @@
         <v>8.748242227040336</v>
       </c>
       <c r="L38" t="n">
-        <v>100.8527995047686</v>
+        <v>56.900656342816</v>
       </c>
       <c r="M38" t="n">
-        <v>200.7481904474807</v>
+        <v>156.7960472855281</v>
       </c>
       <c r="N38" t="n">
-        <v>309.0076880071048</v>
+        <v>265.0555448451523</v>
       </c>
       <c r="O38" t="n">
-        <v>417.267185566729</v>
+        <v>347.7790989383852</v>
       </c>
       <c r="P38" t="n">
         <v>437.4121113520168</v>
       </c>
       <c r="Q38" t="n">
-        <v>436.7236479370195</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="R38" t="n">
-        <v>340.1210538573562</v>
+        <v>326.9545074752449</v>
       </c>
       <c r="S38" t="n">
-        <v>340.1210538573562</v>
+        <v>216.496903598473</v>
       </c>
       <c r="T38" t="n">
-        <v>340.1210538573562</v>
+        <v>216.496903598473</v>
       </c>
       <c r="U38" t="n">
-        <v>340.1210538573562</v>
+        <v>106.039299721701</v>
       </c>
       <c r="V38" t="n">
-        <v>229.6634499805842</v>
+        <v>106.039299721701</v>
       </c>
       <c r="W38" t="n">
-        <v>229.6634499805842</v>
+        <v>106.039299721701</v>
       </c>
       <c r="X38" t="n">
-        <v>119.2058461038123</v>
+        <v>106.039299721701</v>
       </c>
       <c r="Y38" t="n">
-        <v>119.2058461038123</v>
+        <v>106.039299721701</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>340.1210538573562</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="C39" t="n">
-        <v>229.6634499805842</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="D39" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="E39" t="n">
         <v>8.748242227040336</v>
@@ -7259,7 +7259,7 @@
         <v>8.748242227040336</v>
       </c>
       <c r="L39" t="n">
-        <v>94.88674545426777</v>
+        <v>54.93256742037941</v>
       </c>
       <c r="M39" t="n">
         <v>163.1920649800036</v>
@@ -7286,19 +7286,19 @@
         <v>437.4121113520168</v>
       </c>
       <c r="U39" t="n">
-        <v>437.4121113520168</v>
+        <v>340.1210538573562</v>
       </c>
       <c r="V39" t="n">
-        <v>340.1210538573562</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="W39" t="n">
-        <v>340.1210538573562</v>
+        <v>119.2058461038123</v>
       </c>
       <c r="X39" t="n">
-        <v>340.1210538573562</v>
+        <v>119.2058461038123</v>
       </c>
       <c r="Y39" t="n">
-        <v>340.1210538573562</v>
+        <v>8.748242227040336</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="C40" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="D40" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="E40" t="n">
-        <v>379.1391891559668</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="F40" t="n">
-        <v>379.1391891559668</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="G40" t="n">
-        <v>379.1391891559668</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="H40" t="n">
-        <v>379.1391891559668</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="I40" t="n">
-        <v>379.1391891559668</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="J40" t="n">
-        <v>379.1391891559668</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="K40" t="n">
-        <v>379.1391891559668</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="L40" t="n">
-        <v>390.2721425546313</v>
+        <v>19.88119562570483</v>
       </c>
       <c r="M40" t="n">
-        <v>408.629538287396</v>
+        <v>38.23859135846959</v>
       </c>
       <c r="N40" t="n">
-        <v>437.4121113520168</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="O40" t="n">
-        <v>437.4121113520168</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="P40" t="n">
-        <v>437.4121113520168</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="Q40" t="n">
-        <v>437.4121113520168</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="R40" t="n">
-        <v>437.4121113520168</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="S40" t="n">
-        <v>437.4121113520168</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="T40" t="n">
-        <v>437.4121113520168</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="U40" t="n">
-        <v>437.4121113520168</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="V40" t="n">
-        <v>437.4121113520168</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="W40" t="n">
-        <v>437.4121113520168</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="X40" t="n">
-        <v>437.4121113520168</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="Y40" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>340.1210538573562</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="C41" t="n">
-        <v>340.1210538573562</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="D41" t="n">
-        <v>229.6634499805842</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="E41" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="F41" t="n">
         <v>8.748242227040336</v>
@@ -7414,49 +7414,49 @@
         <v>8.748242227040336</v>
       </c>
       <c r="K41" t="n">
-        <v>78.2363288553841</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="L41" t="n">
-        <v>126.3887429711598</v>
+        <v>56.900656342816</v>
       </c>
       <c r="M41" t="n">
-        <v>226.2841339138719</v>
+        <v>156.7960472855281</v>
       </c>
       <c r="N41" t="n">
-        <v>334.543631473496</v>
+        <v>265.0555448451523</v>
       </c>
       <c r="O41" t="n">
-        <v>417.267185566729</v>
+        <v>347.7790989383852</v>
       </c>
       <c r="P41" t="n">
         <v>437.4121113520168</v>
       </c>
       <c r="Q41" t="n">
-        <v>436.7236479370195</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="R41" t="n">
         <v>340.1210538573562</v>
       </c>
       <c r="S41" t="n">
-        <v>340.1210538573562</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="T41" t="n">
-        <v>340.1210538573562</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="U41" t="n">
-        <v>340.1210538573562</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="V41" t="n">
-        <v>340.1210538573562</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="W41" t="n">
-        <v>340.1210538573562</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="X41" t="n">
-        <v>340.1210538573562</v>
+        <v>119.2058461038123</v>
       </c>
       <c r="Y41" t="n">
-        <v>340.1210538573562</v>
+        <v>8.748242227040336</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="C42" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="D42" t="n">
-        <v>326.9545074752449</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="E42" t="n">
-        <v>216.496903598473</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="F42" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="G42" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="H42" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="I42" t="n">
         <v>8.748242227040336</v>
@@ -7493,16 +7493,16 @@
         <v>8.748242227040336</v>
       </c>
       <c r="K42" t="n">
-        <v>22.42626291519228</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="L42" t="n">
-        <v>108.5647661424197</v>
+        <v>94.88674545426777</v>
       </c>
       <c r="M42" t="n">
-        <v>216.8242637020439</v>
+        <v>203.1462430138919</v>
       </c>
       <c r="N42" t="n">
-        <v>325.083761261668</v>
+        <v>271.4515625396277</v>
       </c>
       <c r="O42" t="n">
         <v>379.2050485191301</v>
@@ -7514,28 +7514,28 @@
         <v>437.4121113520168</v>
       </c>
       <c r="R42" t="n">
-        <v>437.4121113520168</v>
+        <v>340.1210538573562</v>
       </c>
       <c r="S42" t="n">
-        <v>437.4121113520168</v>
+        <v>340.1210538573562</v>
       </c>
       <c r="T42" t="n">
-        <v>437.4121113520168</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="U42" t="n">
-        <v>437.4121113520168</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="V42" t="n">
-        <v>437.4121113520168</v>
+        <v>119.2058461038123</v>
       </c>
       <c r="W42" t="n">
-        <v>437.4121113520168</v>
+        <v>119.2058461038123</v>
       </c>
       <c r="X42" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="Y42" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
     </row>
     <row r="43">
@@ -7584,31 +7584,31 @@
         <v>67.02116442309041</v>
       </c>
       <c r="O43" t="n">
-        <v>64.97508602539486</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="P43" t="n">
-        <v>64.97508602539486</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.748242227040336</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="R43" t="n">
-        <v>8.748242227040336</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="S43" t="n">
-        <v>8.748242227040336</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="T43" t="n">
-        <v>8.748242227040336</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="U43" t="n">
-        <v>8.748242227040336</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="V43" t="n">
-        <v>8.748242227040336</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="W43" t="n">
-        <v>8.748242227040336</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="X43" t="n">
         <v>8.748242227040336</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>436.7236479370195</v>
+        <v>106.039299721701</v>
       </c>
       <c r="C44" t="n">
-        <v>340.1210538573562</v>
+        <v>106.039299721701</v>
       </c>
       <c r="D44" t="n">
-        <v>229.6634499805842</v>
+        <v>106.039299721701</v>
       </c>
       <c r="E44" t="n">
-        <v>229.6634499805842</v>
+        <v>106.039299721701</v>
       </c>
       <c r="F44" t="n">
-        <v>229.6634499805842</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="G44" t="n">
-        <v>119.2058461038123</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="H44" t="n">
         <v>8.748242227040336</v>
@@ -7651,49 +7651,49 @@
         <v>8.748242227040336</v>
       </c>
       <c r="K44" t="n">
-        <v>8.748242227040336</v>
+        <v>78.2363288553841</v>
       </c>
       <c r="L44" t="n">
-        <v>56.900656342816</v>
+        <v>126.3887429711598</v>
       </c>
       <c r="M44" t="n">
-        <v>156.7960472855281</v>
+        <v>226.2841339138719</v>
       </c>
       <c r="N44" t="n">
-        <v>265.0555448451523</v>
+        <v>334.543631473496</v>
       </c>
       <c r="O44" t="n">
-        <v>347.7790989383852</v>
+        <v>417.267185566729</v>
       </c>
       <c r="P44" t="n">
         <v>437.4121113520168</v>
       </c>
       <c r="Q44" t="n">
-        <v>436.7236479370195</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="R44" t="n">
-        <v>436.7236479370195</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="S44" t="n">
-        <v>436.7236479370195</v>
+        <v>437.4121113520168</v>
       </c>
       <c r="T44" t="n">
-        <v>436.7236479370195</v>
+        <v>326.9545074752449</v>
       </c>
       <c r="U44" t="n">
-        <v>436.7236479370195</v>
+        <v>216.496903598473</v>
       </c>
       <c r="V44" t="n">
-        <v>436.7236479370195</v>
+        <v>106.039299721701</v>
       </c>
       <c r="W44" t="n">
-        <v>436.7236479370195</v>
+        <v>106.039299721701</v>
       </c>
       <c r="X44" t="n">
-        <v>436.7236479370195</v>
+        <v>106.039299721701</v>
       </c>
       <c r="Y44" t="n">
-        <v>436.7236479370195</v>
+        <v>106.039299721701</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="C45" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="D45" t="n">
-        <v>326.9545074752449</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="E45" t="n">
-        <v>216.496903598473</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="F45" t="n">
-        <v>216.496903598473</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="G45" t="n">
-        <v>106.039299721701</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="H45" t="n">
         <v>8.748242227040336</v>
@@ -7730,13 +7730,13 @@
         <v>8.748242227040336</v>
       </c>
       <c r="K45" t="n">
-        <v>22.42626291519228</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="L45" t="n">
-        <v>108.5647661424197</v>
+        <v>94.88674545426777</v>
       </c>
       <c r="M45" t="n">
-        <v>216.8242637020439</v>
+        <v>163.1920649800036</v>
       </c>
       <c r="N45" t="n">
         <v>271.4515625396277</v>
@@ -7751,28 +7751,28 @@
         <v>437.4121113520168</v>
       </c>
       <c r="R45" t="n">
-        <v>437.4121113520168</v>
+        <v>340.1210538573562</v>
       </c>
       <c r="S45" t="n">
-        <v>437.4121113520168</v>
+        <v>340.1210538573562</v>
       </c>
       <c r="T45" t="n">
-        <v>437.4121113520168</v>
+        <v>340.1210538573562</v>
       </c>
       <c r="U45" t="n">
-        <v>437.4121113520168</v>
+        <v>229.6634499805842</v>
       </c>
       <c r="V45" t="n">
-        <v>437.4121113520168</v>
+        <v>119.2058461038123</v>
       </c>
       <c r="W45" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="X45" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
       <c r="Y45" t="n">
-        <v>437.4121113520168</v>
+        <v>8.748242227040336</v>
       </c>
     </row>
     <row r="46">
@@ -7821,37 +7821,37 @@
         <v>67.02116442309041</v>
       </c>
       <c r="O46" t="n">
-        <v>64.97508602539486</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="P46" t="n">
-        <v>33.59733802471489</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.748242227040336</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="R46" t="n">
-        <v>8.748242227040336</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="S46" t="n">
-        <v>8.748242227040336</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="T46" t="n">
-        <v>8.748242227040336</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="U46" t="n">
-        <v>8.748242227040336</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="V46" t="n">
-        <v>8.748242227040336</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="W46" t="n">
-        <v>8.748242227040336</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="X46" t="n">
-        <v>8.748242227040336</v>
+        <v>67.02116442309041</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.748242227040336</v>
+        <v>67.02116442309041</v>
       </c>
     </row>
   </sheetData>
@@ -8692,10 +8692,10 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>74.92577486638879</v>
+        <v>4.735788373112257</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>60.71422570085707</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>9.47576079241944</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -9406,16 +9406,16 @@
         <v>4.735788373112257</v>
       </c>
       <c r="L20" t="n">
-        <v>35.94751166165709</v>
+        <v>60.71422570085666</v>
       </c>
       <c r="M20" t="n">
-        <v>8.448592542335405</v>
+        <v>8.448592542334993</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>25.79388228928406</v>
+        <v>1.027168250083264</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9646,13 +9646,13 @@
         <v>86.0390349977213</v>
       </c>
       <c r="M23" t="n">
-        <v>33.30827247880879</v>
+        <v>33.77340183919964</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>25.32480929686423</v>
       </c>
       <c r="O23" t="n">
-        <v>51.11869158614826</v>
+        <v>25.32875292889318</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9880,19 +9880,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L26" t="n">
-        <v>31.8257690312239</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>33.77340183919961</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>25.3248092968642</v>
+        <v>7.256316042702295</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -10114,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>84.27780726850284</v>
+        <v>4.735788373112257</v>
       </c>
       <c r="L29" t="n">
-        <v>86.0390349977213</v>
+        <v>1.906241512744948</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>33.77340183919961</v>
       </c>
       <c r="N29" t="n">
-        <v>4.884945169566464</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>51.11869158614826</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10354,19 +10354,19 @@
         <v>4.735788373112257</v>
       </c>
       <c r="L32" t="n">
-        <v>86.0390349977213</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>7.983463181944529</v>
+        <v>33.77340183919964</v>
       </c>
       <c r="N32" t="n">
-        <v>25.3248092968642</v>
+        <v>25.32480929686423</v>
       </c>
       <c r="O32" t="n">
-        <v>51.11869158614826</v>
+        <v>27.70012380202898</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>9.475760792419436</v>
       </c>
       <c r="P35" t="n">
-        <v>9.47576079241944</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10828,7 +10828,7 @@
         <v>4.735788373112257</v>
       </c>
       <c r="L38" t="n">
-        <v>44.39610420399249</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>25.79388228928406</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>70.18998649327654</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -11062,7 +11062,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>74.92577486638879</v>
+        <v>4.735788373112257</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>70.18998649327654</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11299,7 +11299,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>4.735788373112257</v>
+        <v>74.92577486638879</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>70.18998649327654</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -23269,16 +23269,16 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F11" t="n">
-        <v>289.7933897353648</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>311.7439840723904</v>
+        <v>421.0970119103947</v>
       </c>
       <c r="H11" t="n">
-        <v>229.209817268536</v>
+        <v>338.5628451065402</v>
       </c>
       <c r="I11" t="n">
-        <v>115.1925385766586</v>
+        <v>211.5106854963727</v>
       </c>
       <c r="J11" t="n">
         <v>9.206461716874429</v>
@@ -23308,16 +23308,16 @@
         <v>141.5934983382827</v>
       </c>
       <c r="S11" t="n">
-        <v>210.5757348309299</v>
+        <v>114.2575879112159</v>
       </c>
       <c r="T11" t="n">
         <v>214.6003730632052</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7021487636306</v>
+        <v>139.3491209256264</v>
       </c>
       <c r="V11" t="n">
-        <v>313.3044420010231</v>
+        <v>203.9514141630189</v>
       </c>
       <c r="W11" t="n">
         <v>325.3917254792934</v>
@@ -23326,7 +23326,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.9289763951821</v>
+        <v>268.5759485571779</v>
       </c>
     </row>
     <row r="12">
@@ -23339,10 +23339,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C12" t="n">
-        <v>203.8424276152394</v>
+        <v>107.5242806955253</v>
       </c>
       <c r="D12" t="n">
-        <v>172.0989423795122</v>
+        <v>62.745914541508</v>
       </c>
       <c r="E12" t="n">
         <v>187.4605452976028</v>
@@ -23357,10 +23357,10 @@
         <v>132.1511409205337</v>
       </c>
       <c r="I12" t="n">
-        <v>27.35583050443795</v>
+        <v>96.98992474124472</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>26.68405268290729</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>9.043540337363183</v>
       </c>
       <c r="S12" t="n">
-        <v>87.90076932900163</v>
+        <v>197.2537971670058</v>
       </c>
       <c r="T12" t="n">
-        <v>118.4054466375545</v>
+        <v>227.7584744755587</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6114126795757</v>
+        <v>140.2583848415715</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23433,16 +23433,16 @@
         <v>168.748334259544</v>
       </c>
       <c r="H13" t="n">
-        <v>163.2562233038565</v>
+        <v>105.566030329767</v>
       </c>
       <c r="I13" t="n">
         <v>153.1187687712379</v>
       </c>
       <c r="J13" t="n">
-        <v>71.22104935199394</v>
+        <v>97.91676185662999</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>30.99448046945352</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>338.5628451065402</v>
       </c>
       <c r="I14" t="n">
-        <v>102.1576576583685</v>
+        <v>211.5106854963727</v>
       </c>
       <c r="J14" t="n">
         <v>9.206461716874429</v>
@@ -23548,16 +23548,16 @@
         <v>101.2227069929257</v>
       </c>
       <c r="T14" t="n">
-        <v>105.2473452252009</v>
+        <v>214.6003730632052</v>
       </c>
       <c r="U14" t="n">
         <v>248.7021487636306</v>
       </c>
       <c r="V14" t="n">
-        <v>313.3044420010231</v>
+        <v>203.9514141630189</v>
       </c>
       <c r="W14" t="n">
-        <v>325.3917254792934</v>
+        <v>216.0386976412892</v>
       </c>
       <c r="X14" t="n">
         <v>348.8168793035129</v>
@@ -23594,7 +23594,7 @@
         <v>132.1511409205337</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6717778215306538</v>
+        <v>96.98992474124472</v>
       </c>
       <c r="J15" t="n">
         <v>26.68405268290729</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.043540337363183</v>
+        <v>118.3965681753674</v>
       </c>
       <c r="S15" t="n">
-        <v>87.90076932900163</v>
+        <v>197.2537971670058</v>
       </c>
       <c r="T15" t="n">
-        <v>118.4054466375545</v>
+        <v>227.7584744755587</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6114126795757</v>
+        <v>140.2583848415715</v>
       </c>
       <c r="V15" t="n">
-        <v>249.2999251801724</v>
+        <v>139.9468973421682</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2492567629311</v>
+        <v>173.8962289249269</v>
       </c>
       <c r="X15" t="n">
-        <v>230.033063710963</v>
+        <v>133.7149167912489</v>
       </c>
       <c r="Y15" t="n">
         <v>242.8962664135933</v>
@@ -23676,10 +23676,10 @@
         <v>153.1187687712379</v>
       </c>
       <c r="J16" t="n">
-        <v>71.22104935199394</v>
+        <v>97.91676185662999</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>30.99448046945352</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>110.9388242179101</v>
       </c>
       <c r="R16" t="n">
-        <v>199.1990068388297</v>
+        <v>141.5088138647402</v>
       </c>
       <c r="S16" t="n">
         <v>235.2215283813404</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>255.203299759059</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C17" t="n">
         <v>333.5971194742085</v>
@@ -23740,19 +23740,19 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E17" t="n">
-        <v>359.9585549362873</v>
+        <v>250.6055270982831</v>
       </c>
       <c r="F17" t="n">
-        <v>399.146417573369</v>
+        <v>289.7933897353648</v>
       </c>
       <c r="G17" t="n">
         <v>421.0970119103947</v>
       </c>
       <c r="H17" t="n">
-        <v>242.2446981868261</v>
+        <v>338.5628451065402</v>
       </c>
       <c r="I17" t="n">
-        <v>102.1576576583685</v>
+        <v>211.5106854963727</v>
       </c>
       <c r="J17" t="n">
         <v>9.206461716874429</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6815787808473601</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.5934983382827</v>
+        <v>32.24047050027849</v>
       </c>
       <c r="S17" t="n">
         <v>210.5757348309299</v>
       </c>
       <c r="T17" t="n">
-        <v>214.6003730632052</v>
+        <v>118.9638049243385</v>
       </c>
       <c r="U17" t="n">
         <v>248.7021487636306</v>
@@ -23797,7 +23797,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X17" t="n">
-        <v>239.4638514655087</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y17" t="n">
         <v>377.9289763951821</v>
@@ -23825,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>51.08218327692182</v>
+        <v>160.435211114926</v>
       </c>
       <c r="H18" t="n">
-        <v>22.79811308252954</v>
+        <v>132.1511409205337</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>96.98992474124472</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>26.68405268290729</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.39937084180112</v>
+        <v>118.3965681753674</v>
       </c>
       <c r="S18" t="n">
         <v>197.2537971670058</v>
       </c>
       <c r="T18" t="n">
-        <v>227.7584744755587</v>
+        <v>118.4054466375545</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6114126795757</v>
+        <v>140.2583848415715</v>
       </c>
       <c r="V18" t="n">
-        <v>249.2999251801724</v>
+        <v>139.9468973421682</v>
       </c>
       <c r="W18" t="n">
         <v>283.2492567629311</v>
@@ -23879,7 +23879,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y18" t="n">
-        <v>242.8962664135933</v>
+        <v>146.5781194938793</v>
       </c>
     </row>
     <row r="19">
@@ -23937,7 +23937,7 @@
         <v>110.9388242179101</v>
       </c>
       <c r="R19" t="n">
-        <v>199.1990068388297</v>
+        <v>141.5088138647402</v>
       </c>
       <c r="S19" t="n">
         <v>235.2215283813404</v>
@@ -23952,7 +23952,7 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W19" t="n">
-        <v>236.7956021722481</v>
+        <v>294.4857951463376</v>
       </c>
       <c r="X19" t="n">
         <v>217.7416213385031</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>268.9197594581964</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C20" t="n">
-        <v>224.2440916362042</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D20" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>359.9585549362873</v>
+        <v>263.6404080165736</v>
       </c>
       <c r="F20" t="n">
-        <v>399.146417573369</v>
+        <v>289.7933897353652</v>
       </c>
       <c r="G20" t="n">
         <v>421.0970119103947</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.6815787808473601</v>
       </c>
       <c r="R20" t="n">
         <v>141.5934983382827</v>
@@ -24022,22 +24022,22 @@
         <v>210.5757348309299</v>
       </c>
       <c r="T20" t="n">
-        <v>214.6003730632052</v>
+        <v>105.2473452252014</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7021487636306</v>
+        <v>139.3491209256268</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W20" t="n">
-        <v>216.0386976412892</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X20" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y20" t="n">
-        <v>268.5759485571779</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
-        <v>62.745914541508</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
         <v>187.4605452976028</v>
@@ -24098,25 +24098,25 @@
         <v>118.3965681753674</v>
       </c>
       <c r="S21" t="n">
-        <v>197.2537971670058</v>
+        <v>100.9356502472921</v>
       </c>
       <c r="T21" t="n">
-        <v>227.7584744755587</v>
+        <v>118.4054466375549</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6114126795757</v>
+        <v>140.2583848415719</v>
       </c>
       <c r="V21" t="n">
-        <v>249.2999251801724</v>
+        <v>139.9468973421686</v>
       </c>
       <c r="W21" t="n">
-        <v>173.8962289249269</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X21" t="n">
-        <v>120.6800358729588</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y21" t="n">
-        <v>146.5781194938793</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="22">
@@ -24144,7 +24144,7 @@
         <v>168.748334259544</v>
       </c>
       <c r="H22" t="n">
-        <v>105.566030329767</v>
+        <v>163.2562233038565</v>
       </c>
       <c r="I22" t="n">
         <v>153.1187687712379</v>
@@ -24171,7 +24171,7 @@
         <v>31.06397052067317</v>
       </c>
       <c r="Q22" t="n">
-        <v>110.9388242179101</v>
+        <v>53.24863124382055</v>
       </c>
       <c r="R22" t="n">
         <v>199.1990068388297</v>
@@ -24217,13 +24217,13 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
-        <v>264.4685804385006</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
         <v>421.0970119103947</v>
       </c>
       <c r="H23" t="n">
-        <v>219.938606158148</v>
+        <v>338.5628451065402</v>
       </c>
       <c r="I23" t="n">
         <v>211.5106854963727</v>
@@ -24256,22 +24256,22 @@
         <v>141.5934983382827</v>
       </c>
       <c r="S23" t="n">
-        <v>75.89789769606151</v>
+        <v>210.5757348309299</v>
       </c>
       <c r="T23" t="n">
-        <v>214.6003730632052</v>
+        <v>79.92253592833671</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7021487636306</v>
+        <v>114.0243116287621</v>
       </c>
       <c r="V23" t="n">
-        <v>313.3044420010231</v>
+        <v>178.6266048661547</v>
       </c>
       <c r="W23" t="n">
-        <v>190.7138883444249</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
-        <v>348.8168793035129</v>
+        <v>230.1926403551208</v>
       </c>
       <c r="Y23" t="n">
         <v>377.9289763951821</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>53.33492024616601</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
         <v>203.8424276152394</v>
@@ -24305,10 +24305,10 @@
         <v>132.1511409205337</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>96.98992474124472</v>
       </c>
       <c r="J24" t="n">
-        <v>26.68405268290729</v>
+        <v>26.45638190988264</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>197.2537971670058</v>
+        <v>62.5759600321374</v>
       </c>
       <c r="T24" t="n">
         <v>93.08063734069026</v>
@@ -24353,7 +24353,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>204.9806832469449</v>
+        <v>108.2184292787249</v>
       </c>
     </row>
     <row r="25">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>364.5563275970632</v>
+        <v>229.8784904621947</v>
       </c>
       <c r="C26" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D26" t="n">
-        <v>200.5075166948555</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E26" t="n">
-        <v>359.9585549362873</v>
+        <v>225.2807178014189</v>
       </c>
       <c r="F26" t="n">
         <v>399.146417573369</v>
@@ -24460,13 +24460,13 @@
         <v>421.0970119103947</v>
       </c>
       <c r="H26" t="n">
-        <v>203.8850079716717</v>
+        <v>338.5628451065402</v>
       </c>
       <c r="I26" t="n">
         <v>211.5106854963727</v>
       </c>
       <c r="J26" t="n">
-        <v>9.206461716874429</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>141.5934983382827</v>
       </c>
       <c r="S26" t="n">
-        <v>75.89789769606151</v>
+        <v>210.5757348309299</v>
       </c>
       <c r="T26" t="n">
         <v>214.6003730632052</v>
       </c>
       <c r="U26" t="n">
-        <v>114.0243116287621</v>
+        <v>248.7021487636306</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24508,10 +24508,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X26" t="n">
-        <v>348.8168793035129</v>
+        <v>239.3991020719953</v>
       </c>
       <c r="Y26" t="n">
-        <v>377.9289763951821</v>
+        <v>243.2511392603137</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C27" t="n">
-        <v>69.16459048037095</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
         <v>172.0989423795122</v>
@@ -24533,7 +24533,7 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
-        <v>173.9843481253239</v>
+        <v>39.30651099045548</v>
       </c>
       <c r="G27" t="n">
         <v>160.435211114926</v>
@@ -24542,7 +24542,7 @@
         <v>132.1511409205337</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>96.98992474124472</v>
       </c>
       <c r="J27" t="n">
         <v>26.68405268290729</v>
@@ -24572,19 +24572,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>159.3382140003574</v>
+        <v>62.5759600321374</v>
       </c>
       <c r="T27" t="n">
-        <v>93.08063734069026</v>
+        <v>227.7584744755587</v>
       </c>
       <c r="U27" t="n">
         <v>249.6114126795757</v>
       </c>
       <c r="V27" t="n">
-        <v>249.2999251801724</v>
+        <v>249.0722544071477</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2492567629311</v>
+        <v>148.5714196280627</v>
       </c>
       <c r="X27" t="n">
         <v>230.033063710963</v>
@@ -24654,7 +24654,7 @@
         <v>235.2215283813404</v>
       </c>
       <c r="T28" t="n">
-        <v>216.0098914540576</v>
+        <v>158.319698479968</v>
       </c>
       <c r="U28" t="n">
         <v>291.1930683246979</v>
@@ -24666,7 +24666,7 @@
         <v>294.4857951463376</v>
       </c>
       <c r="X28" t="n">
-        <v>160.0514283644135</v>
+        <v>217.7416213385031</v>
       </c>
       <c r="Y28" t="n">
         <v>215.5502738121359</v>
@@ -24682,10 +24682,10 @@
         <v>229.8784904621947</v>
       </c>
       <c r="C29" t="n">
-        <v>198.91928233934</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>184.4539185083792</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
@@ -24700,10 +24700,10 @@
         <v>338.5628451065402</v>
       </c>
       <c r="I29" t="n">
-        <v>92.88644654798053</v>
+        <v>211.5106854963727</v>
       </c>
       <c r="J29" t="n">
-        <v>9.206461716874429</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.6815787808473601</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>141.5934983382827</v>
@@ -24742,13 +24742,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W29" t="n">
-        <v>325.3917254792934</v>
+        <v>190.7138883444249</v>
       </c>
       <c r="X29" t="n">
-        <v>348.8168793035129</v>
+        <v>240.0806808528426</v>
       </c>
       <c r="Y29" t="n">
-        <v>377.9289763951821</v>
+        <v>243.2511392603137</v>
       </c>
     </row>
     <row r="30">
@@ -24770,7 +24770,7 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F30" t="n">
-        <v>39.30651099045548</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
         <v>160.435211114926</v>
@@ -24779,7 +24779,7 @@
         <v>132.1511409205337</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>96.98992474124472</v>
       </c>
       <c r="J30" t="n">
         <v>26.68405268290729</v>
@@ -24812,7 +24812,7 @@
         <v>197.2537971670058</v>
       </c>
       <c r="T30" t="n">
-        <v>227.7584744755587</v>
+        <v>109.1342355271666</v>
       </c>
       <c r="U30" t="n">
         <v>249.6114126795757</v>
@@ -24824,7 +24824,7 @@
         <v>148.5714196280627</v>
       </c>
       <c r="X30" t="n">
-        <v>208.3987495038156</v>
+        <v>95.35522657609454</v>
       </c>
       <c r="Y30" t="n">
         <v>108.2184292787249</v>
@@ -24882,7 +24882,7 @@
         <v>31.06397052067317</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.24863124382055</v>
+        <v>110.9388242179101</v>
       </c>
       <c r="R31" t="n">
         <v>199.1990068388297</v>
@@ -24894,7 +24894,7 @@
         <v>216.0098914540576</v>
       </c>
       <c r="U31" t="n">
-        <v>291.1930683246979</v>
+        <v>233.5028753506083</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24931,16 +24931,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.0970119103947</v>
+        <v>302.4727729620025</v>
       </c>
       <c r="H32" t="n">
-        <v>203.8850079716717</v>
+        <v>338.5628451065402</v>
       </c>
       <c r="I32" t="n">
         <v>211.5106854963727</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>9.206461716874429</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>0.6815787808473601</v>
       </c>
       <c r="R32" t="n">
-        <v>141.5934983382827</v>
+        <v>6.91566120341426</v>
       </c>
       <c r="S32" t="n">
-        <v>210.5757348309299</v>
+        <v>75.89789769606151</v>
       </c>
       <c r="T32" t="n">
-        <v>105.8641746125349</v>
+        <v>79.92253592833671</v>
       </c>
       <c r="U32" t="n">
         <v>248.7021487636306</v>
@@ -24979,10 +24979,10 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>190.7138883444249</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>214.1390421686445</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
         <v>377.9289763951821</v>
@@ -25007,7 +25007,7 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F33" t="n">
-        <v>152.3500339181765</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
         <v>160.435211114926</v>
@@ -25016,7 +25016,7 @@
         <v>132.1511409205337</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>96.98992474124472</v>
       </c>
       <c r="J33" t="n">
         <v>26.68405268290729</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3965681753674</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>197.2537971670058</v>
       </c>
       <c r="T33" t="n">
-        <v>93.08063734069026</v>
+        <v>227.7584744755587</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6114126795757</v>
+        <v>114.9335755447073</v>
       </c>
       <c r="V33" t="n">
-        <v>249.2999251801724</v>
+        <v>114.6220880453039</v>
       </c>
       <c r="W33" t="n">
-        <v>148.5714196280627</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X33" t="n">
         <v>95.35522657609454</v>
       </c>
       <c r="Y33" t="n">
-        <v>242.8962664135933</v>
+        <v>242.6685956405687</v>
       </c>
     </row>
     <row r="34">
@@ -25113,13 +25113,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>2.025617613718595</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>31.06397052067317</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.33821937821232</v>
+        <v>110.9388242179101</v>
       </c>
       <c r="R34" t="n">
         <v>199.1990068388297</v>
@@ -25137,7 +25137,7 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W34" t="n">
-        <v>294.4857951463376</v>
+        <v>236.7956021722481</v>
       </c>
       <c r="X34" t="n">
         <v>217.7416213385031</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>364.5563275970632</v>
+        <v>255.203299759059</v>
       </c>
       <c r="C35" t="n">
-        <v>224.2440916362042</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1317556432476</v>
+        <v>209.7787278052434</v>
       </c>
       <c r="E35" t="n">
-        <v>359.9585549362873</v>
+        <v>263.6404080165732</v>
       </c>
       <c r="F35" t="n">
         <v>399.146417573369</v>
@@ -25201,7 +25201,7 @@
         <v>0.6815787808473601</v>
       </c>
       <c r="R35" t="n">
-        <v>45.27535141856865</v>
+        <v>141.5934983382827</v>
       </c>
       <c r="S35" t="n">
         <v>210.5757348309299</v>
@@ -25219,7 +25219,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X35" t="n">
-        <v>239.4638514655087</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
         <v>268.5759485571779</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.043540337363183</v>
+        <v>118.3965681753674</v>
       </c>
       <c r="S36" t="n">
         <v>197.2537971670058</v>
@@ -25289,10 +25289,10 @@
         <v>227.7584744755587</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6114126795757</v>
+        <v>153.2932657598617</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>139.9468973421682</v>
       </c>
       <c r="W36" t="n">
         <v>173.8962289249269</v>
@@ -25301,7 +25301,7 @@
         <v>120.6800358729588</v>
       </c>
       <c r="Y36" t="n">
-        <v>146.5781194938793</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="37">
@@ -25332,7 +25332,7 @@
         <v>163.2562233038565</v>
       </c>
       <c r="I37" t="n">
-        <v>95.42857579714834</v>
+        <v>153.1187687712379</v>
       </c>
       <c r="J37" t="n">
         <v>97.91676185662999</v>
@@ -25374,7 +25374,7 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W37" t="n">
-        <v>294.4857951463376</v>
+        <v>236.7956021722481</v>
       </c>
       <c r="X37" t="n">
         <v>217.7416213385031</v>
@@ -25393,7 +25393,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C38" t="n">
-        <v>224.2440916362042</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
         <v>319.1317556432476</v>
@@ -25408,7 +25408,7 @@
         <v>421.0970119103947</v>
       </c>
       <c r="H38" t="n">
-        <v>338.5628451065402</v>
+        <v>242.2446981868261</v>
       </c>
       <c r="I38" t="n">
         <v>211.5106854963727</v>
@@ -25435,28 +25435,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>0.6815787808473601</v>
       </c>
       <c r="R38" t="n">
-        <v>45.95693019941601</v>
+        <v>32.24047050027849</v>
       </c>
       <c r="S38" t="n">
-        <v>210.5757348309299</v>
+        <v>101.2227069929257</v>
       </c>
       <c r="T38" t="n">
         <v>214.6003730632052</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7021487636306</v>
+        <v>139.3491209256264</v>
       </c>
       <c r="V38" t="n">
-        <v>203.9514141630189</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
-        <v>239.4638514655087</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
         <v>377.9289763951821</v>
@@ -25472,13 +25472,13 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>94.48939977723518</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
-        <v>62.745914541508</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>78.10751745959863</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
         <v>173.9843481253239</v>
@@ -25526,19 +25526,19 @@
         <v>227.7584744755587</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6114126795757</v>
+        <v>153.2932657598617</v>
       </c>
       <c r="V39" t="n">
-        <v>152.9817782604583</v>
+        <v>139.9468973421682</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2492567629311</v>
+        <v>173.8962289249269</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>242.8962664135933</v>
+        <v>133.5432385755891</v>
       </c>
     </row>
     <row r="40">
@@ -25557,7 +25557,7 @@
         <v>141.3987433365328</v>
       </c>
       <c r="E40" t="n">
-        <v>78.74153142982419</v>
+        <v>136.4317244039137</v>
       </c>
       <c r="F40" t="n">
         <v>131.7685403657761</v>
@@ -25617,7 +25617,7 @@
         <v>217.7416213385031</v>
       </c>
       <c r="Y40" t="n">
-        <v>215.5502738121359</v>
+        <v>157.8600808380464</v>
       </c>
     </row>
     <row r="41">
@@ -25633,13 +25633,13 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
-        <v>209.7787278052434</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E41" t="n">
-        <v>250.6055270982831</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>289.7933897353648</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
         <v>421.0970119103947</v>
@@ -25672,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>0.6815787808473601</v>
       </c>
       <c r="R41" t="n">
-        <v>45.95693019941601</v>
+        <v>45.27535141856865</v>
       </c>
       <c r="S41" t="n">
-        <v>210.5757348309299</v>
+        <v>101.2227069929257</v>
       </c>
       <c r="T41" t="n">
         <v>214.6003730632052</v>
@@ -25693,10 +25693,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
-        <v>348.8168793035129</v>
+        <v>239.4638514655087</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.9289763951821</v>
+        <v>268.5759485571779</v>
       </c>
     </row>
     <row r="42">
@@ -25712,13 +25712,13 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
-        <v>62.745914541508</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E42" t="n">
-        <v>78.10751745959863</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F42" t="n">
-        <v>64.63132028731971</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
         <v>160.435211114926</v>
@@ -25727,7 +25727,7 @@
         <v>132.1511409205337</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6717778215306538</v>
+        <v>96.98992474124472</v>
       </c>
       <c r="J42" t="n">
         <v>26.68405268290729</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3965681753674</v>
+        <v>22.07842125565334</v>
       </c>
       <c r="S42" t="n">
         <v>197.2537971670058</v>
       </c>
       <c r="T42" t="n">
-        <v>227.7584744755587</v>
+        <v>118.4054466375545</v>
       </c>
       <c r="U42" t="n">
         <v>249.6114126795757</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>139.9468973421682</v>
       </c>
       <c r="W42" t="n">
         <v>283.2492567629311</v>
       </c>
       <c r="X42" t="n">
-        <v>230.033063710963</v>
+        <v>120.6800358729588</v>
       </c>
       <c r="Y42" t="n">
         <v>242.8962664135933</v>
@@ -25824,13 +25824,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2.025617613718595</v>
       </c>
       <c r="P43" t="n">
         <v>31.06397052067317</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.27424885753913</v>
+        <v>110.9388242179101</v>
       </c>
       <c r="R43" t="n">
         <v>199.1990068388297</v>
@@ -25851,7 +25851,7 @@
         <v>294.4857951463376</v>
       </c>
       <c r="X43" t="n">
-        <v>217.7416213385031</v>
+        <v>160.0514283644135</v>
       </c>
       <c r="Y43" t="n">
         <v>215.5502738121359</v>
@@ -25867,22 +25867,22 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C44" t="n">
-        <v>237.9605513353418</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
-        <v>209.7787278052434</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E44" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>399.146417573369</v>
+        <v>302.828270653655</v>
       </c>
       <c r="G44" t="n">
-        <v>311.7439840723904</v>
+        <v>421.0970119103947</v>
       </c>
       <c r="H44" t="n">
-        <v>229.209817268536</v>
+        <v>338.5628451065402</v>
       </c>
       <c r="I44" t="n">
         <v>211.5106854963727</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.6815787808473601</v>
       </c>
       <c r="R44" t="n">
         <v>141.5934983382827</v>
@@ -25918,13 +25918,13 @@
         <v>210.5757348309299</v>
       </c>
       <c r="T44" t="n">
-        <v>214.6003730632052</v>
+        <v>105.2473452252009</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7021487636306</v>
+        <v>139.3491209256264</v>
       </c>
       <c r="V44" t="n">
-        <v>313.3044420010231</v>
+        <v>203.9514141630189</v>
       </c>
       <c r="W44" t="n">
         <v>325.3917254792934</v>
@@ -25949,19 +25949,19 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D45" t="n">
-        <v>62.745914541508</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E45" t="n">
-        <v>78.10751745959863</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F45" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>51.08218327692182</v>
+        <v>160.435211114926</v>
       </c>
       <c r="H45" t="n">
-        <v>35.83299400081968</v>
+        <v>132.1511409205337</v>
       </c>
       <c r="I45" t="n">
         <v>96.98992474124472</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3965681753674</v>
+        <v>22.07842125565334</v>
       </c>
       <c r="S45" t="n">
         <v>197.2537971670058</v>
@@ -26000,13 +26000,13 @@
         <v>227.7584744755587</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6114126795757</v>
+        <v>140.2583848415715</v>
       </c>
       <c r="V45" t="n">
-        <v>249.2999251801724</v>
+        <v>139.9468973421682</v>
       </c>
       <c r="W45" t="n">
-        <v>283.2492567629311</v>
+        <v>173.8962289249269</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>175.175320970127</v>
+        <v>117.4851279960375</v>
       </c>
       <c r="C46" t="n">
         <v>165.5867821959998</v>
@@ -26061,13 +26061,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2.025617613718595</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>31.06397052067317</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.3382193782123</v>
+        <v>110.9388242179101</v>
       </c>
       <c r="R46" t="n">
         <v>199.1990068388297</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410275.728303951</v>
+        <v>410275.7283039509</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>410275.7283039509</v>
+        <v>410275.7283039507</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>426256.9370343643</v>
+        <v>426256.9370343644</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>410275.7283039508</v>
+        <v>410275.728303951</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410275.7283039511</v>
+        <v>410275.7283039509</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>713195.7535049171</v>
       </c>
       <c r="C2" t="n">
-        <v>713195.753504917</v>
+        <v>713195.7535049171</v>
       </c>
       <c r="D2" t="n">
-        <v>713195.7535049171</v>
+        <v>713195.7535049168</v>
       </c>
       <c r="E2" t="n">
-        <v>298322.3954182043</v>
+        <v>298322.3954182042</v>
       </c>
       <c r="F2" t="n">
-        <v>298322.3954182043</v>
+        <v>298322.3954182042</v>
       </c>
       <c r="G2" t="n">
         <v>298322.3954182043</v>
       </c>
       <c r="H2" t="n">
-        <v>298322.3954182043</v>
+        <v>298322.3954182041</v>
       </c>
       <c r="I2" t="n">
         <v>307315.0629908175</v>
@@ -26349,10 +26349,10 @@
         <v>298322.3954182042</v>
       </c>
       <c r="N2" t="n">
-        <v>298322.3954182043</v>
+        <v>298322.3954182042</v>
       </c>
       <c r="O2" t="n">
-        <v>298322.3954182043</v>
+        <v>298322.3954182042</v>
       </c>
       <c r="P2" t="n">
         <v>298322.3954182043</v>
@@ -26435,7 +26435,7 @@
         <v>12593.89129508174</v>
       </c>
       <c r="H4" t="n">
-        <v>12593.89129508174</v>
+        <v>12593.89129508167</v>
       </c>
       <c r="I4" t="n">
         <v>16603.22710564413</v>
@@ -26487,7 +26487,7 @@
         <v>20168.71679728755</v>
       </c>
       <c r="H5" t="n">
-        <v>20168.71679728755</v>
+        <v>20168.71679728753</v>
       </c>
       <c r="I5" t="n">
         <v>21708.4652025369</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>143422.3465451198</v>
+        <v>143375.402004187</v>
       </c>
       <c r="C6" t="n">
-        <v>143422.3465451197</v>
+        <v>143375.402004187</v>
       </c>
       <c r="D6" t="n">
-        <v>143422.3465451198</v>
+        <v>143375.4020041866</v>
       </c>
       <c r="E6" t="n">
-        <v>-265349.8367605192</v>
+        <v>-279225.8932376758</v>
       </c>
       <c r="F6" t="n">
-        <v>265559.787325835</v>
+        <v>251683.7308486783</v>
       </c>
       <c r="G6" t="n">
-        <v>265559.787325835</v>
+        <v>251683.7308486784</v>
       </c>
       <c r="H6" t="n">
-        <v>265559.787325835</v>
+        <v>251683.7308486784</v>
       </c>
       <c r="I6" t="n">
-        <v>262268.9720696049</v>
+        <v>248692.6711782021</v>
       </c>
       <c r="J6" t="n">
-        <v>269003.3706826365</v>
+        <v>255427.0697912337</v>
       </c>
       <c r="K6" t="n">
-        <v>269003.3706826365</v>
+        <v>255427.0697912337</v>
       </c>
       <c r="L6" t="n">
-        <v>269003.3706826365</v>
+        <v>255427.0697912337</v>
       </c>
       <c r="M6" t="n">
-        <v>244619.6191525087</v>
+        <v>230743.5626753521</v>
       </c>
       <c r="N6" t="n">
-        <v>265559.787325835</v>
+        <v>251683.7308486783</v>
       </c>
       <c r="O6" t="n">
-        <v>265559.787325835</v>
+        <v>251683.7308486783</v>
       </c>
       <c r="P6" t="n">
-        <v>265559.787325835</v>
+        <v>251683.7308486784</v>
       </c>
     </row>
   </sheetData>
@@ -26807,7 +26807,7 @@
         <v>109.3530278380042</v>
       </c>
       <c r="H4" t="n">
-        <v>109.3530278380042</v>
+        <v>109.3530278380038</v>
       </c>
       <c r="I4" t="n">
         <v>134.6778371348684</v>
@@ -31846,7 +31846,7 @@
         <v>201.5931045</v>
       </c>
       <c r="L12" t="n">
-        <v>289.6443695464775</v>
+        <v>249.2866139566913</v>
       </c>
       <c r="M12" t="n">
         <v>317.2240524489561</v>
@@ -31855,7 +31855,7 @@
         <v>301.4402817598792</v>
       </c>
       <c r="O12" t="n">
-        <v>277.0311569400141</v>
+        <v>317.3889125298003</v>
       </c>
       <c r="P12" t="n">
         <v>254.7325838059699</v>
@@ -32086,13 +32086,13 @@
         <v>289.6443695464775</v>
       </c>
       <c r="M15" t="n">
-        <v>263.050114345885</v>
+        <v>317.2240524489561</v>
       </c>
       <c r="N15" t="n">
         <v>301.4402817598792</v>
       </c>
       <c r="O15" t="n">
-        <v>317.3889125298003</v>
+        <v>263.2149744267293</v>
       </c>
       <c r="P15" t="n">
         <v>254.7325838059699</v>
@@ -32326,10 +32326,10 @@
         <v>317.2240524489561</v>
       </c>
       <c r="N18" t="n">
-        <v>301.4402817598792</v>
+        <v>261.0825261700929</v>
       </c>
       <c r="O18" t="n">
-        <v>277.0311569400141</v>
+        <v>317.3889125298003</v>
       </c>
       <c r="P18" t="n">
         <v>254.7325838059699</v>
@@ -32560,10 +32560,10 @@
         <v>289.6443695464775</v>
       </c>
       <c r="M21" t="n">
-        <v>276.8662968591698</v>
+        <v>276.8662968591685</v>
       </c>
       <c r="N21" t="n">
-        <v>301.4402817598792</v>
+        <v>301.4402817598788</v>
       </c>
       <c r="O21" t="n">
         <v>317.3889125298003</v>
@@ -33739,13 +33739,13 @@
         <v>126.0323071285865</v>
       </c>
       <c r="K36" t="n">
-        <v>215.4092870132848</v>
+        <v>201.5931045</v>
       </c>
       <c r="L36" t="n">
         <v>289.6443695464775</v>
       </c>
       <c r="M36" t="n">
-        <v>263.050114345885</v>
+        <v>276.8662968591698</v>
       </c>
       <c r="N36" t="n">
         <v>301.4402817598792</v>
@@ -33979,10 +33979,10 @@
         <v>201.5931045</v>
       </c>
       <c r="L39" t="n">
-        <v>289.6443695464775</v>
+        <v>249.2866139566913</v>
       </c>
       <c r="M39" t="n">
-        <v>276.8662968591698</v>
+        <v>317.2240524489561</v>
       </c>
       <c r="N39" t="n">
         <v>301.4402817598792</v>
@@ -34213,7 +34213,7 @@
         <v>126.0323071285865</v>
       </c>
       <c r="K42" t="n">
-        <v>215.4092870132848</v>
+        <v>201.5931045</v>
       </c>
       <c r="L42" t="n">
         <v>289.6443695464775</v>
@@ -34222,10 +34222,10 @@
         <v>317.2240524489561</v>
       </c>
       <c r="N42" t="n">
-        <v>301.4402817598792</v>
+        <v>261.0825261700929</v>
       </c>
       <c r="O42" t="n">
-        <v>263.2149744267293</v>
+        <v>317.3889125298003</v>
       </c>
       <c r="P42" t="n">
         <v>254.7325838059699</v>
@@ -34450,16 +34450,16 @@
         <v>126.0323071285865</v>
       </c>
       <c r="K45" t="n">
-        <v>215.4092870132848</v>
+        <v>201.5931045</v>
       </c>
       <c r="L45" t="n">
         <v>289.6443695464775</v>
       </c>
       <c r="M45" t="n">
-        <v>317.2240524489561</v>
+        <v>276.8662968591698</v>
       </c>
       <c r="N45" t="n">
-        <v>247.2663436568081</v>
+        <v>301.4402817598792</v>
       </c>
       <c r="O45" t="n">
         <v>317.3889125298003</v>
@@ -35412,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>70.18998649327654</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>48.63880213714714</v>
+        <v>109.3530278380042</v>
       </c>
       <c r="M11" t="n">
         <v>100.9044352956688</v>
@@ -35427,7 +35427,7 @@
         <v>83.55914554872015</v>
       </c>
       <c r="P11" t="n">
-        <v>20.34840988412913</v>
+        <v>29.82417067654857</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>87.00858911841155</v>
+        <v>46.65083352862533</v>
       </c>
       <c r="M12" t="n">
         <v>109.3530278380042</v>
@@ -35503,7 +35503,7 @@
         <v>109.3530278380042</v>
       </c>
       <c r="O12" t="n">
-        <v>68.48414944001412</v>
+        <v>108.8419050298004</v>
       </c>
       <c r="P12" t="n">
         <v>58.79501296251189</v>
@@ -35734,13 +35734,13 @@
         <v>87.00858911841155</v>
       </c>
       <c r="M15" t="n">
-        <v>55.17908973493321</v>
+        <v>109.3530278380042</v>
       </c>
       <c r="N15" t="n">
         <v>109.3530278380042</v>
       </c>
       <c r="O15" t="n">
-        <v>108.8419050298004</v>
+        <v>54.66796692672932</v>
       </c>
       <c r="P15" t="n">
         <v>58.79501296251189</v>
@@ -35974,10 +35974,10 @@
         <v>109.3530278380042</v>
       </c>
       <c r="N18" t="n">
-        <v>109.3530278380042</v>
+        <v>68.99527224821797</v>
       </c>
       <c r="O18" t="n">
-        <v>68.48414944001412</v>
+        <v>108.8419050298004</v>
       </c>
       <c r="P18" t="n">
         <v>58.79501296251189</v>
@@ -36126,16 +36126,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>84.58631379880423</v>
+        <v>109.3530278380038</v>
       </c>
       <c r="M20" t="n">
-        <v>109.3530278380042</v>
+        <v>109.3530278380038</v>
       </c>
       <c r="N20" t="n">
         <v>109.3530278380042</v>
       </c>
       <c r="O20" t="n">
-        <v>109.3530278380042</v>
+        <v>84.58631379880342</v>
       </c>
       <c r="P20" t="n">
         <v>20.34840988412913</v>
@@ -36208,10 +36208,10 @@
         <v>87.00858911841155</v>
       </c>
       <c r="M21" t="n">
-        <v>68.99527224821799</v>
+        <v>68.99527224821669</v>
       </c>
       <c r="N21" t="n">
-        <v>109.3530278380042</v>
+        <v>109.3530278380038</v>
       </c>
       <c r="O21" t="n">
         <v>108.8419050298004</v>
@@ -36366,13 +36366,13 @@
         <v>134.6778371348684</v>
       </c>
       <c r="M23" t="n">
-        <v>134.2127077744776</v>
+        <v>134.6778371348684</v>
       </c>
       <c r="N23" t="n">
-        <v>109.3530278380042</v>
+        <v>134.6778371348684</v>
       </c>
       <c r="O23" t="n">
-        <v>134.6778371348684</v>
+        <v>108.8878984776133</v>
       </c>
       <c r="P23" t="n">
         <v>20.34840988412913</v>
@@ -36600,19 +36600,19 @@
         <v>79.54201889539058</v>
       </c>
       <c r="L26" t="n">
-        <v>80.46457116837104</v>
+        <v>48.63880213714714</v>
       </c>
       <c r="M26" t="n">
-        <v>134.6778371348684</v>
+        <v>100.9044352956688</v>
       </c>
       <c r="N26" t="n">
-        <v>134.6778371348684</v>
+        <v>116.6093438807065</v>
       </c>
       <c r="O26" t="n">
         <v>83.55914554872015</v>
       </c>
       <c r="P26" t="n">
-        <v>20.34840988412913</v>
+        <v>104.0160740087146</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>108.8419050298004</v>
       </c>
       <c r="P27" t="n">
-        <v>58.79501296251189</v>
+        <v>58.79501296251201</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>79.54201889539058</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>50.54504364989209</v>
+      </c>
+      <c r="M29" t="n">
         <v>134.6778371348684</v>
       </c>
-      <c r="M29" t="n">
-        <v>100.9044352956688</v>
-      </c>
       <c r="N29" t="n">
-        <v>114.2379730075707</v>
+        <v>109.3530278380042</v>
       </c>
       <c r="O29" t="n">
-        <v>83.55914554872015</v>
+        <v>134.6778371348684</v>
       </c>
       <c r="P29" t="n">
-        <v>20.34840988412913</v>
+        <v>104.0160740087146</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>48.63880213714714</v>
+      </c>
+      <c r="M32" t="n">
         <v>134.6778371348684</v>
-      </c>
-      <c r="M32" t="n">
-        <v>108.8878984776133</v>
       </c>
       <c r="N32" t="n">
         <v>134.6778371348684</v>
       </c>
       <c r="O32" t="n">
-        <v>134.6778371348684</v>
+        <v>111.2592693507491</v>
       </c>
       <c r="P32" t="n">
-        <v>20.34840988412913</v>
+        <v>104.0160740087146</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>13.81618251328479</v>
       </c>
       <c r="L33" t="n">
-        <v>87.00858911841155</v>
+        <v>87.00858911841169</v>
       </c>
       <c r="M33" t="n">
         <v>130.1302930074706</v>
@@ -37320,10 +37320,10 @@
         <v>109.3530278380042</v>
       </c>
       <c r="O35" t="n">
-        <v>83.55914554872015</v>
+        <v>93.03490634113959</v>
       </c>
       <c r="P35" t="n">
-        <v>29.82417067654857</v>
+        <v>20.34840988412913</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>13.81618251328479</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>87.00858911841155</v>
       </c>
       <c r="M36" t="n">
-        <v>55.17908973493321</v>
+        <v>68.99527224821799</v>
       </c>
       <c r="N36" t="n">
         <v>109.3530278380042</v>
@@ -37548,7 +37548,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>93.03490634113963</v>
+        <v>48.63880213714714</v>
       </c>
       <c r="M38" t="n">
         <v>100.9044352956688</v>
@@ -37557,10 +37557,10 @@
         <v>109.3530278380042</v>
       </c>
       <c r="O38" t="n">
-        <v>109.3530278380042</v>
+        <v>83.55914554872015</v>
       </c>
       <c r="P38" t="n">
-        <v>20.34840988412913</v>
+        <v>90.53839637740566</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>87.00858911841155</v>
+        <v>46.65083352862533</v>
       </c>
       <c r="M39" t="n">
-        <v>68.99527224821799</v>
+        <v>109.3530278380042</v>
       </c>
       <c r="N39" t="n">
         <v>109.3530278380042</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>70.18998649327654</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>48.63880213714714</v>
@@ -37797,7 +37797,7 @@
         <v>83.55914554872015</v>
       </c>
       <c r="P41" t="n">
-        <v>20.34840988412913</v>
+        <v>90.53839637740566</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>13.81618251328479</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>87.00858911841155</v>
@@ -37870,10 +37870,10 @@
         <v>109.3530278380042</v>
       </c>
       <c r="N42" t="n">
-        <v>109.3530278380042</v>
+        <v>68.99527224821797</v>
       </c>
       <c r="O42" t="n">
-        <v>54.66796692672932</v>
+        <v>108.8419050298004</v>
       </c>
       <c r="P42" t="n">
         <v>58.79501296251189</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>70.18998649327654</v>
       </c>
       <c r="L44" t="n">
         <v>48.63880213714714</v>
@@ -38034,7 +38034,7 @@
         <v>83.55914554872015</v>
       </c>
       <c r="P44" t="n">
-        <v>90.53839637740566</v>
+        <v>20.34840988412913</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>13.81618251328479</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>87.00858911841155</v>
       </c>
       <c r="M45" t="n">
+        <v>68.99527224821799</v>
+      </c>
+      <c r="N45" t="n">
         <v>109.3530278380042</v>
-      </c>
-      <c r="N45" t="n">
-        <v>55.17908973493319</v>
       </c>
       <c r="O45" t="n">
         <v>108.8419050298004</v>
